--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1063833.090760494</v>
+        <v>1059974.936714115</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33343748.21868626</v>
+        <v>33343748.21868628</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6025711.324761792</v>
+        <v>6025711.324761788</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4233828.479581648</v>
+        <v>4233828.479581649</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.64407141291334</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>247.9581581286756</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H12" t="n">
-        <v>31.46494373506149</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>83.50566770956974</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.05114379168072</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>239.7660459136613</v>
       </c>
       <c r="U13" t="n">
-        <v>244.0846647801102</v>
+        <v>275.6020161941874</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>302.8240354478708</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>395.4770341286055</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.219270228409064</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1703,7 +1703,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H15" t="n">
-        <v>31.46494373506149</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0800288950615</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>123.9794809361985</v>
+        <v>86.80193043297163</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.7660459136613</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1858,10 +1858,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>382.6581652353821</v>
+        <v>147.6445500555162</v>
       </c>
       <c r="H17" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>39.36371861119831</v>
       </c>
       <c r="T17" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>43.87040842116372</v>
+        <v>43.87040842116371</v>
       </c>
       <c r="T18" t="n">
         <v>124.7645818372411</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>102.5906125548036</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>76.54837395301408</v>
       </c>
       <c r="G19" t="n">
         <v>163.0800288950615</v>
@@ -2022,7 +2022,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>275.6020161941874</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>192.0974294492223</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>39.36371861119833</v>
+        <v>39.36371861119831</v>
       </c>
       <c r="T20" t="n">
-        <v>209.5194549705165</v>
+        <v>147.6445500555164</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>43.87040842116372</v>
+        <v>43.87040842116371</v>
       </c>
       <c r="T21" t="n">
         <v>124.7645818372411</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>71.90839136174635</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0800288950615</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>191.9773345582587</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2329,13 +2329,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>52.40572175591873</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.36371861119833</v>
+        <v>39.36371861119831</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>328.2687487288641</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.87040842116372</v>
+        <v>43.87040842116371</v>
       </c>
       <c r="T24" t="n">
         <v>124.7645818372411</v>
@@ -2496,7 +2496,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I25" t="n">
-        <v>62.05114379168072</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>239.7660459136613</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6020161941873</v>
+        <v>275.6020161941874</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2560,16 +2560,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>265.2613553153028</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>266.7106435996681</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>39.36371861119831</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>101.0103355667301</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.87040842116372</v>
+        <v>43.87040842116371</v>
       </c>
       <c r="T27" t="n">
         <v>124.7645818372411</v>
@@ -2733,7 +2733,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I28" t="n">
-        <v>62.05114379168072</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>239.7660459136613</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6020161941874</v>
+        <v>275.6020161941873</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.4770341286055</v>
       </c>
       <c r="H29" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U29" t="n">
         <v>256.4775341414042</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>341.3396437282837</v>
+        <v>357.6320162728834</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2970,7 +2970,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I31" t="n">
-        <v>62.05114379168072</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T32" t="n">
         <v>209.5194549705165</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>158.2399249968668</v>
+        <v>155.3240591477767</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I34" t="n">
-        <v>62.05114379168072</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>238.3896159984475</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.36371861119833</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.5194549705165</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V35" t="n">
-        <v>164.0310076742436</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.061073460742319</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.7660459136613</v>
+        <v>162.3487634761401</v>
       </c>
       <c r="U37" t="n">
         <v>275.6020161941874</v>
@@ -3508,13 +3508,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>4.836238210154384</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>206.3937614982547</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3672,7 +3672,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>97.5227010603396</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.7660459136613</v>
+        <v>162.3487634761401</v>
       </c>
       <c r="U40" t="n">
         <v>275.6020161941874</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>66.85513691125576</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H41" t="n">
         <v>266.7106435996681</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>39.36371861119833</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>13.68276520218031</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3909,7 +3909,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>97.52270106034047</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>239.7660459136613</v>
       </c>
       <c r="U43" t="n">
-        <v>198.1847337566656</v>
+        <v>275.6020161941874</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>255.9475577344063</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>265.5740064206861</v>
       </c>
     </row>
     <row r="45">
@@ -4143,16 +4143,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0800288950615</v>
+        <v>59.93968889014504</v>
       </c>
       <c r="H46" t="n">
-        <v>43.58864171569103</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T46" t="n">
         <v>239.7660459136613</v>
@@ -4194,13 +4194,13 @@
         <v>275.6020161941874</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1309.091298396676</v>
+        <v>922.0296299612552</v>
       </c>
       <c r="C11" t="n">
-        <v>1309.091298396676</v>
+        <v>483.8871571446785</v>
       </c>
       <c r="D11" t="n">
-        <v>1309.091298396676</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="E11" t="n">
-        <v>875.3165535549713</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="F11" t="n">
-        <v>447.449123964179</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="G11" t="n">
-        <v>47.97737231912296</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H11" t="n">
-        <v>47.97737231912296</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I11" t="n">
-        <v>120.3463876521523</v>
+        <v>120.3463876521521</v>
       </c>
       <c r="J11" t="n">
-        <v>280.5668724472628</v>
+        <v>280.5668724472631</v>
       </c>
       <c r="K11" t="n">
-        <v>520.6958462790544</v>
+        <v>520.6958462790549</v>
       </c>
       <c r="L11" t="n">
-        <v>818.5970719737409</v>
+        <v>818.5970719737415</v>
       </c>
       <c r="M11" t="n">
-        <v>1150.06958498017</v>
+        <v>1150.069584980171</v>
       </c>
       <c r="N11" t="n">
-        <v>1486.905669790886</v>
+        <v>1486.905669790888</v>
       </c>
       <c r="O11" t="n">
-        <v>1804.970433130814</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P11" t="n">
-        <v>2076.431349953069</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q11" t="n">
-        <v>2280.287193219308</v>
+        <v>2280.28719321931</v>
       </c>
       <c r="R11" t="n">
-        <v>2398.868615956148</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S11" t="n">
-        <v>2392.157432710781</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="T11" t="n">
-        <v>2392.157432710781</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="U11" t="n">
-        <v>2133.089216406333</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="V11" t="n">
-        <v>2133.089216406333</v>
+        <v>1996.490333959473</v>
       </c>
       <c r="W11" t="n">
-        <v>1728.233761817366</v>
+        <v>1591.634879370506</v>
       </c>
       <c r="X11" t="n">
-        <v>1309.091298396676</v>
+        <v>1172.492415949816</v>
       </c>
       <c r="Y11" t="n">
-        <v>1309.091298396676</v>
+        <v>922.0296299612552</v>
       </c>
     </row>
     <row r="12">
@@ -5111,34 +5111,34 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G12" t="n">
-        <v>79.76014376868002</v>
+        <v>79.76014376868005</v>
       </c>
       <c r="H12" t="n">
-        <v>47.97737231912296</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I12" t="n">
-        <v>55.59900615728775</v>
+        <v>82.75272404474124</v>
       </c>
       <c r="J12" t="n">
-        <v>151.0252292810511</v>
+        <v>178.1789471685047</v>
       </c>
       <c r="K12" t="n">
-        <v>314.1238438647564</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L12" t="n">
-        <v>533.4300587917284</v>
+        <v>560.5837766791823</v>
       </c>
       <c r="M12" t="n">
-        <v>789.3500676056092</v>
+        <v>816.5037854930632</v>
       </c>
       <c r="N12" t="n">
-        <v>1052.043517539041</v>
+        <v>1079.197235426495</v>
       </c>
       <c r="O12" t="n">
-        <v>1292.356702896953</v>
+        <v>1319.510420784407</v>
       </c>
       <c r="P12" t="n">
-        <v>1485.229220531344</v>
+        <v>1512.382938418798</v>
       </c>
       <c r="Q12" t="n">
         <v>1614.159390801712</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>787.7256478412099</v>
+        <v>702.3168033945431</v>
       </c>
       <c r="C13" t="n">
-        <v>787.7256478412099</v>
+        <v>702.3168033945431</v>
       </c>
       <c r="D13" t="n">
-        <v>621.8476550427326</v>
+        <v>536.4388105960658</v>
       </c>
       <c r="E13" t="n">
-        <v>452.08965129347</v>
+        <v>452.0896512934701</v>
       </c>
       <c r="F13" t="n">
         <v>275.3825972552262</v>
@@ -5196,55 +5196,55 @@
         <v>110.6552953410227</v>
       </c>
       <c r="I13" t="n">
-        <v>47.97737231912296</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J13" t="n">
-        <v>107.8447180416542</v>
+        <v>194.4244032063441</v>
       </c>
       <c r="K13" t="n">
-        <v>206.2251575856878</v>
+        <v>567.5632973215133</v>
       </c>
       <c r="L13" t="n">
-        <v>332.1182490022078</v>
+        <v>1111.666270505995</v>
       </c>
       <c r="M13" t="n">
-        <v>924.338729567923</v>
+        <v>1703.88675107171</v>
       </c>
       <c r="N13" t="n">
-        <v>1321.60079894537</v>
+        <v>1920.584167277162</v>
       </c>
       <c r="O13" t="n">
-        <v>1860.958551616428</v>
+        <v>2040.272670722439</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.879637112108</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q13" t="n">
-        <v>2381.785914783477</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R13" t="n">
-        <v>2398.868615956148</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.683941399237</v>
+        <v>2254.683941399238</v>
       </c>
       <c r="T13" t="n">
-        <v>2012.496016233923</v>
+        <v>2012.496016233924</v>
       </c>
       <c r="U13" t="n">
-        <v>1765.945849789367</v>
+        <v>1734.1101412903</v>
       </c>
       <c r="V13" t="n">
-        <v>1478.990341659797</v>
+        <v>1447.154633160731</v>
       </c>
       <c r="W13" t="n">
-        <v>1206.963937246089</v>
+        <v>1175.128228747022</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.963937246089</v>
+        <v>929.7364740804348</v>
       </c>
       <c r="Y13" t="n">
-        <v>979.544266560197</v>
+        <v>702.3168033945431</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1617.109202469285</v>
+        <v>716.8538144688943</v>
       </c>
       <c r="C14" t="n">
-        <v>1311.226338380527</v>
+        <v>716.8538144688943</v>
       </c>
       <c r="D14" t="n">
-        <v>875.3165535549713</v>
+        <v>716.8538144688943</v>
       </c>
       <c r="E14" t="n">
-        <v>875.3165535549713</v>
+        <v>716.8538144688943</v>
       </c>
       <c r="F14" t="n">
-        <v>447.449123964179</v>
+        <v>716.8538144688943</v>
       </c>
       <c r="G14" t="n">
-        <v>47.97737231912296</v>
+        <v>317.3820628238382</v>
       </c>
       <c r="H14" t="n">
-        <v>47.97737231912296</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I14" t="n">
-        <v>120.3463876521524</v>
+        <v>120.3463876521521</v>
       </c>
       <c r="J14" t="n">
-        <v>280.5668724472628</v>
+        <v>280.5668724472626</v>
       </c>
       <c r="K14" t="n">
-        <v>520.6958462790544</v>
+        <v>520.6958462790546</v>
       </c>
       <c r="L14" t="n">
-        <v>818.5970719737408</v>
+        <v>818.5970719737411</v>
       </c>
       <c r="M14" t="n">
         <v>1150.06958498017</v>
@@ -5293,37 +5293,37 @@
         <v>1486.905669790887</v>
       </c>
       <c r="O14" t="n">
-        <v>1804.970433130814</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P14" t="n">
-        <v>2076.431349953069</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q14" t="n">
-        <v>2280.287193219308</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R14" t="n">
-        <v>2398.868615956148</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S14" t="n">
-        <v>2398.868615956148</v>
+        <v>2395.616827846645</v>
       </c>
       <c r="T14" t="n">
-        <v>2398.868615956148</v>
+        <v>2183.981014745113</v>
       </c>
       <c r="U14" t="n">
-        <v>2398.868615956148</v>
+        <v>1924.912798440665</v>
       </c>
       <c r="V14" t="n">
-        <v>2036.251665889974</v>
+        <v>1562.295848374491</v>
       </c>
       <c r="W14" t="n">
-        <v>2036.251665889974</v>
+        <v>1562.295848374491</v>
       </c>
       <c r="X14" t="n">
-        <v>1617.109202469285</v>
+        <v>1143.153384953802</v>
       </c>
       <c r="Y14" t="n">
-        <v>1617.109202469285</v>
+        <v>1143.153384953802</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G15" t="n">
-        <v>79.76014376868002</v>
+        <v>79.76014376868005</v>
       </c>
       <c r="H15" t="n">
-        <v>47.97737231912296</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I15" t="n">
-        <v>55.59900615728775</v>
+        <v>82.75272404474124</v>
       </c>
       <c r="J15" t="n">
-        <v>151.0252292810511</v>
+        <v>178.1789471685047</v>
       </c>
       <c r="K15" t="n">
-        <v>314.1238438647564</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L15" t="n">
-        <v>533.4300587917284</v>
+        <v>560.5837766791823</v>
       </c>
       <c r="M15" t="n">
-        <v>789.3500676056092</v>
+        <v>816.5037854930632</v>
       </c>
       <c r="N15" t="n">
-        <v>1052.043517539041</v>
+        <v>1079.197235426495</v>
       </c>
       <c r="O15" t="n">
-        <v>1292.356702896953</v>
+        <v>1319.510420784407</v>
       </c>
       <c r="P15" t="n">
-        <v>1485.229220531344</v>
+        <v>1512.382938418798</v>
       </c>
       <c r="Q15" t="n">
-        <v>1614.159390801712</v>
+        <v>1641.313108689166</v>
       </c>
       <c r="R15" t="n">
         <v>1676.870203416725</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>510.4981846755546</v>
+        <v>654.6828592324669</v>
       </c>
       <c r="C16" t="n">
-        <v>337.9364731587795</v>
+        <v>482.1211477156918</v>
       </c>
       <c r="D16" t="n">
-        <v>337.9364731587795</v>
+        <v>482.1211477156918</v>
       </c>
       <c r="E16" t="n">
-        <v>337.9364731587795</v>
+        <v>312.363143966429</v>
       </c>
       <c r="F16" t="n">
-        <v>337.9364731587795</v>
+        <v>135.6560899281853</v>
       </c>
       <c r="G16" t="n">
-        <v>173.209171244576</v>
+        <v>135.6560899281853</v>
       </c>
       <c r="H16" t="n">
-        <v>47.97737231912296</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I16" t="n">
-        <v>47.97737231912296</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J16" t="n">
-        <v>194.424403206344</v>
+        <v>194.4244032063441</v>
       </c>
       <c r="K16" t="n">
-        <v>567.5632973215132</v>
+        <v>567.5632973215133</v>
       </c>
       <c r="L16" t="n">
-        <v>693.4563887380332</v>
+        <v>693.4563887380334</v>
       </c>
       <c r="M16" t="n">
-        <v>1285.676869303748</v>
+        <v>826.1930021228357</v>
       </c>
       <c r="N16" t="n">
-        <v>1415.257302703179</v>
+        <v>1153.408024081039</v>
       </c>
       <c r="O16" t="n">
-        <v>1692.765776752096</v>
+        <v>1692.765776752097</v>
       </c>
       <c r="P16" t="n">
-        <v>2142.686862247776</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q16" t="n">
-        <v>2381.785914783477</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R16" t="n">
-        <v>2398.868615956148</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.683941399237</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T16" t="n">
-        <v>2012.496016233923</v>
+        <v>2156.680690790835</v>
       </c>
       <c r="U16" t="n">
-        <v>1734.110141290299</v>
+        <v>1878.294815847211</v>
       </c>
       <c r="V16" t="n">
-        <v>1447.154633160729</v>
+        <v>1591.339307717642</v>
       </c>
       <c r="W16" t="n">
-        <v>1175.128228747021</v>
+        <v>1319.312903303933</v>
       </c>
       <c r="X16" t="n">
-        <v>929.7364740804335</v>
+        <v>1073.921148637346</v>
       </c>
       <c r="Y16" t="n">
-        <v>702.3168033945417</v>
+        <v>846.501477951454</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1565.547636483994</v>
+        <v>1932.807713540738</v>
       </c>
       <c r="C17" t="n">
-        <v>1565.547636483994</v>
+        <v>1494.665240724162</v>
       </c>
       <c r="D17" t="n">
-        <v>1565.547636483994</v>
+        <v>1058.755455898606</v>
       </c>
       <c r="E17" t="n">
-        <v>1131.772891642289</v>
+        <v>624.9807110569013</v>
       </c>
       <c r="F17" t="n">
-        <v>703.9054620514969</v>
+        <v>197.1132814661091</v>
       </c>
       <c r="G17" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H17" t="n">
-        <v>47.97737231912296</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I17" t="n">
-        <v>120.3463876521525</v>
+        <v>120.3463876521523</v>
       </c>
       <c r="J17" t="n">
         <v>280.5668724472629</v>
       </c>
       <c r="K17" t="n">
-        <v>520.6958462790546</v>
+        <v>520.6958462790548</v>
       </c>
       <c r="L17" t="n">
-        <v>818.5970719737411</v>
+        <v>818.5970719737413</v>
       </c>
       <c r="M17" t="n">
-        <v>1150.06958498017</v>
+        <v>1150.069584980171</v>
       </c>
       <c r="N17" t="n">
         <v>1486.905669790887</v>
       </c>
       <c r="O17" t="n">
-        <v>1804.970433130814</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P17" t="n">
-        <v>2076.431349953069</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q17" t="n">
         <v>2280.287193219309</v>
       </c>
       <c r="R17" t="n">
-        <v>2398.868615956148</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S17" t="n">
-        <v>2398.868615956148</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="T17" t="n">
-        <v>2187.232802854616</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="U17" t="n">
-        <v>1928.164586550168</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="V17" t="n">
-        <v>1565.547636483994</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="W17" t="n">
-        <v>1565.547636483994</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="X17" t="n">
-        <v>1565.547636483994</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="Y17" t="n">
-        <v>1565.547636483994</v>
+        <v>2359.107284025646</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G18" t="n">
-        <v>79.76014376868002</v>
+        <v>79.76014376868004</v>
       </c>
       <c r="H18" t="n">
-        <v>47.97737231912296</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I18" t="n">
-        <v>82.7527240447412</v>
+        <v>82.75272404474124</v>
       </c>
       <c r="J18" t="n">
-        <v>178.1789471685046</v>
+        <v>178.1789471685047</v>
       </c>
       <c r="K18" t="n">
-        <v>341.2775617522099</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L18" t="n">
-        <v>560.5837766791821</v>
+        <v>533.4300587917272</v>
       </c>
       <c r="M18" t="n">
-        <v>816.5037854930629</v>
+        <v>789.3500676056083</v>
       </c>
       <c r="N18" t="n">
-        <v>1079.197235426494</v>
+        <v>1052.04351753904</v>
       </c>
       <c r="O18" t="n">
-        <v>1319.510420784407</v>
+        <v>1292.356702896952</v>
       </c>
       <c r="P18" t="n">
-        <v>1512.382938418797</v>
+        <v>1485.229220531343</v>
       </c>
       <c r="Q18" t="n">
-        <v>1641.313108689166</v>
+        <v>1614.159390801712</v>
       </c>
       <c r="R18" t="n">
         <v>1676.870203416725</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1029.830104712534</v>
+        <v>654.6828592324669</v>
       </c>
       <c r="C19" t="n">
-        <v>857.2683931957587</v>
+        <v>654.6828592324669</v>
       </c>
       <c r="D19" t="n">
-        <v>691.3904003972814</v>
+        <v>654.6828592324669</v>
       </c>
       <c r="E19" t="n">
-        <v>521.6323966480187</v>
+        <v>484.9248554832041</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9253426097749</v>
+        <v>407.6032656316747</v>
       </c>
       <c r="G19" t="n">
-        <v>180.1980406955714</v>
+        <v>242.8759637174712</v>
       </c>
       <c r="H19" t="n">
-        <v>47.97737231912296</v>
+        <v>110.6552953410227</v>
       </c>
       <c r="I19" t="n">
-        <v>47.97737231912296</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J19" t="n">
-        <v>107.8447180416542</v>
+        <v>194.4244032063441</v>
       </c>
       <c r="K19" t="n">
-        <v>206.2251575856878</v>
+        <v>379.1548843764027</v>
       </c>
       <c r="L19" t="n">
-        <v>332.1182490022078</v>
+        <v>505.0479757929228</v>
       </c>
       <c r="M19" t="n">
-        <v>924.3387295679231</v>
+        <v>1097.268456358638</v>
       </c>
       <c r="N19" t="n">
-        <v>1496.177966124998</v>
+        <v>1669.107692915713</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.535718796056</v>
+        <v>2208.465445586771</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.879637112108</v>
+        <v>2310.879637112109</v>
       </c>
       <c r="Q19" t="n">
-        <v>2381.785914783477</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R19" t="n">
-        <v>2398.868615956148</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S19" t="n">
-        <v>2398.868615956148</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T19" t="n">
-        <v>2156.680690790834</v>
+        <v>2156.680690790835</v>
       </c>
       <c r="U19" t="n">
-        <v>1878.29481584721</v>
+        <v>1878.294815847211</v>
       </c>
       <c r="V19" t="n">
-        <v>1878.29481584721</v>
+        <v>1591.339307717642</v>
       </c>
       <c r="W19" t="n">
-        <v>1606.268411433502</v>
+        <v>1319.312903303933</v>
       </c>
       <c r="X19" t="n">
-        <v>1360.876656766914</v>
+        <v>1073.921148637346</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.456986081022</v>
+        <v>846.501477951454</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1075.261676330351</v>
+        <v>1783.671804393752</v>
       </c>
       <c r="C20" t="n">
-        <v>1075.261676330351</v>
+        <v>1345.529331577176</v>
       </c>
       <c r="D20" t="n">
-        <v>1075.261676330351</v>
+        <v>909.6195467516201</v>
       </c>
       <c r="E20" t="n">
-        <v>641.486931488646</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="F20" t="n">
-        <v>641.486931488646</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="G20" t="n">
-        <v>242.0151798435899</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H20" t="n">
-        <v>47.97737231912296</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I20" t="n">
-        <v>120.3463876521518</v>
+        <v>120.3463876521525</v>
       </c>
       <c r="J20" t="n">
-        <v>280.5668724472622</v>
+        <v>280.5668724472631</v>
       </c>
       <c r="K20" t="n">
-        <v>520.695846279054</v>
+        <v>520.6958462790549</v>
       </c>
       <c r="L20" t="n">
-        <v>818.5970719737406</v>
+        <v>818.5970719737414</v>
       </c>
       <c r="M20" t="n">
-        <v>1150.06958498017</v>
+        <v>1150.069584980171</v>
       </c>
       <c r="N20" t="n">
-        <v>1486.905669790887</v>
+        <v>1486.905669790888</v>
       </c>
       <c r="O20" t="n">
-        <v>1804.970433130814</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P20" t="n">
-        <v>2076.431349953069</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q20" t="n">
-        <v>2280.287193219308</v>
+        <v>2280.28719321931</v>
       </c>
       <c r="R20" t="n">
-        <v>2398.868615956148</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S20" t="n">
-        <v>2359.107284025645</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="T20" t="n">
-        <v>2147.471470924113</v>
+        <v>2209.97137487866</v>
       </c>
       <c r="U20" t="n">
-        <v>1888.403254619664</v>
+        <v>2209.97137487866</v>
       </c>
       <c r="V20" t="n">
-        <v>1888.403254619664</v>
+        <v>2209.97137487866</v>
       </c>
       <c r="W20" t="n">
-        <v>1483.547800030698</v>
+        <v>2209.97137487866</v>
       </c>
       <c r="X20" t="n">
-        <v>1483.547800030698</v>
+        <v>2209.97137487866</v>
       </c>
       <c r="Y20" t="n">
-        <v>1075.261676330351</v>
+        <v>2209.97137487866</v>
       </c>
     </row>
     <row r="21">
@@ -5822,31 +5822,31 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G21" t="n">
-        <v>79.76014376868002</v>
+        <v>79.76014376868004</v>
       </c>
       <c r="H21" t="n">
-        <v>47.97737231912296</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I21" t="n">
-        <v>82.7527240447412</v>
+        <v>82.75272404474124</v>
       </c>
       <c r="J21" t="n">
-        <v>151.0252292810505</v>
+        <v>178.1789471685047</v>
       </c>
       <c r="K21" t="n">
-        <v>314.1238438647559</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L21" t="n">
-        <v>533.4300587917279</v>
+        <v>560.5837766791823</v>
       </c>
       <c r="M21" t="n">
-        <v>789.3500676056088</v>
+        <v>789.3500676056083</v>
       </c>
       <c r="N21" t="n">
         <v>1052.04351753904</v>
       </c>
       <c r="O21" t="n">
-        <v>1292.356702896953</v>
+        <v>1292.356702896952</v>
       </c>
       <c r="P21" t="n">
         <v>1485.229220531343</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>561.9734397883453</v>
+        <v>702.3168033945431</v>
       </c>
       <c r="C22" t="n">
-        <v>389.4117282715703</v>
+        <v>529.755091877768</v>
       </c>
       <c r="D22" t="n">
-        <v>389.4117282715703</v>
+        <v>457.1203531285292</v>
       </c>
       <c r="E22" t="n">
-        <v>389.4117282715703</v>
+        <v>287.3623493792665</v>
       </c>
       <c r="F22" t="n">
-        <v>212.7046742333265</v>
+        <v>110.6552953410227</v>
       </c>
       <c r="G22" t="n">
-        <v>47.97737231912296</v>
+        <v>110.6552953410227</v>
       </c>
       <c r="H22" t="n">
-        <v>47.97737231912296</v>
+        <v>110.6552953410227</v>
       </c>
       <c r="I22" t="n">
-        <v>47.97737231912296</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J22" t="n">
-        <v>194.4244032063441</v>
+        <v>112.5816699680367</v>
       </c>
       <c r="K22" t="n">
-        <v>567.5632973215133</v>
+        <v>210.9621095120704</v>
       </c>
       <c r="L22" t="n">
-        <v>693.4563887380333</v>
+        <v>336.8552009285905</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.676869303749</v>
+        <v>929.0756814943057</v>
       </c>
       <c r="N22" t="n">
-        <v>1415.257302703179</v>
+        <v>1500.914918051381</v>
       </c>
       <c r="O22" t="n">
-        <v>1692.765776752096</v>
+        <v>2040.272670722439</v>
       </c>
       <c r="P22" t="n">
-        <v>2142.686862247776</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q22" t="n">
-        <v>2381.785914783477</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R22" t="n">
-        <v>2398.868615956148</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.683941399237</v>
+        <v>2254.683941399238</v>
       </c>
       <c r="T22" t="n">
-        <v>2012.496016233923</v>
+        <v>2012.496016233924</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.110141290299</v>
+        <v>1734.1101412903</v>
       </c>
       <c r="V22" t="n">
-        <v>1447.154633160729</v>
+        <v>1447.154633160731</v>
       </c>
       <c r="W22" t="n">
-        <v>1175.128228747021</v>
+        <v>1175.128228747022</v>
       </c>
       <c r="X22" t="n">
-        <v>981.2117291932243</v>
+        <v>929.7364740804348</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.7920585073325</v>
+        <v>702.3168033945431</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1848.484628773639</v>
+        <v>1367.682126702121</v>
       </c>
       <c r="C23" t="n">
-        <v>1410.342155957062</v>
+        <v>929.5396538855441</v>
       </c>
       <c r="D23" t="n">
-        <v>974.4323711315069</v>
+        <v>493.6298690599886</v>
       </c>
       <c r="E23" t="n">
-        <v>540.657626289802</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="F23" t="n">
-        <v>112.7901966990098</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="G23" t="n">
-        <v>112.7901966990098</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="H23" t="n">
         <v>59.85512421828376</v>
       </c>
       <c r="I23" t="n">
-        <v>132.2241395513132</v>
+        <v>132.2241395513133</v>
       </c>
       <c r="J23" t="n">
-        <v>292.4446243464237</v>
+        <v>727.6993117993418</v>
       </c>
       <c r="K23" t="n">
-        <v>532.5735981782153</v>
+        <v>967.8282856311336</v>
       </c>
       <c r="L23" t="n">
-        <v>830.4748238729018</v>
+        <v>1265.72951132582</v>
       </c>
       <c r="M23" t="n">
-        <v>1170.932037794608</v>
+        <v>1597.20202433225</v>
       </c>
       <c r="N23" t="n">
-        <v>1911.63919999587</v>
+        <v>1934.038109142967</v>
       </c>
       <c r="O23" t="n">
-        <v>2229.703963335797</v>
+        <v>2252.102872482894</v>
       </c>
       <c r="P23" t="n">
-        <v>2501.164880158052</v>
+        <v>2523.563789305149</v>
       </c>
       <c r="Q23" t="n">
-        <v>2705.020723424291</v>
+        <v>2727.419632571389</v>
       </c>
       <c r="R23" t="n">
         <v>2992.756210914188</v>
       </c>
       <c r="S23" t="n">
-        <v>2952.994878983684</v>
+        <v>2952.994878983685</v>
       </c>
       <c r="T23" t="n">
-        <v>2952.994878983684</v>
+        <v>2952.994878983685</v>
       </c>
       <c r="U23" t="n">
-        <v>2693.926662679236</v>
+        <v>2952.994878983685</v>
       </c>
       <c r="V23" t="n">
-        <v>2693.926662679236</v>
+        <v>2952.994878983685</v>
       </c>
       <c r="W23" t="n">
-        <v>2693.926662679236</v>
+        <v>2621.410284308065</v>
       </c>
       <c r="X23" t="n">
-        <v>2274.784199258547</v>
+        <v>2202.267820887375</v>
       </c>
       <c r="Y23" t="n">
-        <v>2274.784199258547</v>
+        <v>1793.981697187029</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>59.85512421828376</v>
       </c>
       <c r="I24" t="n">
-        <v>94.630475943902</v>
+        <v>94.63047594390203</v>
       </c>
       <c r="J24" t="n">
-        <v>162.9029811802114</v>
+        <v>190.0566990676654</v>
       </c>
       <c r="K24" t="n">
-        <v>326.0015957639167</v>
+        <v>353.1553136513709</v>
       </c>
       <c r="L24" t="n">
-        <v>545.3078106908888</v>
+        <v>572.4615285783431</v>
       </c>
       <c r="M24" t="n">
-        <v>801.2278195047697</v>
+        <v>828.3815373922242</v>
       </c>
       <c r="N24" t="n">
-        <v>1063.921269438201</v>
+        <v>1091.074987325656</v>
       </c>
       <c r="O24" t="n">
-        <v>1304.234454796113</v>
+        <v>1331.388172683568</v>
       </c>
       <c r="P24" t="n">
-        <v>1497.106972430504</v>
+        <v>1524.260690317959</v>
       </c>
       <c r="Q24" t="n">
         <v>1626.037142700873</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1104.385779633594</v>
+        <v>1104.385779633595</v>
       </c>
       <c r="C25" t="n">
-        <v>931.8240681168193</v>
+        <v>931.8240681168195</v>
       </c>
       <c r="D25" t="n">
-        <v>765.9460753183421</v>
+        <v>765.9460753183423</v>
       </c>
       <c r="E25" t="n">
-        <v>596.1880715690793</v>
+        <v>596.1880715690795</v>
       </c>
       <c r="F25" t="n">
-        <v>419.4810175308355</v>
+        <v>419.4810175308357</v>
       </c>
       <c r="G25" t="n">
-        <v>254.7537156166319</v>
+        <v>254.7537156166318</v>
       </c>
       <c r="H25" t="n">
-        <v>122.5330472401835</v>
+        <v>122.5330472401834</v>
       </c>
       <c r="I25" t="n">
         <v>59.85512421828376</v>
@@ -6150,13 +6150,13 @@
         <v>206.3021551055049</v>
       </c>
       <c r="K25" t="n">
-        <v>579.441049220674</v>
+        <v>579.4410492206741</v>
       </c>
       <c r="L25" t="n">
-        <v>705.3341406371941</v>
+        <v>1123.544022405155</v>
       </c>
       <c r="M25" t="n">
-        <v>1297.554621202909</v>
+        <v>1256.280635789957</v>
       </c>
       <c r="N25" t="n">
         <v>1747.295619039077</v>
@@ -6165,7 +6165,7 @@
         <v>2286.653371710135</v>
       </c>
       <c r="P25" t="n">
-        <v>2736.574457205815</v>
+        <v>2736.574457205816</v>
       </c>
       <c r="Q25" t="n">
         <v>2975.673509741517</v>
@@ -6177,13 +6177,13 @@
         <v>2848.571536357277</v>
       </c>
       <c r="T25" t="n">
-        <v>2606.383611191962</v>
+        <v>2606.383611191963</v>
       </c>
       <c r="U25" t="n">
         <v>2327.997736248339</v>
       </c>
       <c r="V25" t="n">
-        <v>2041.042228118769</v>
+        <v>2041.04222811877</v>
       </c>
       <c r="W25" t="n">
         <v>1769.015823705061</v>
@@ -6192,7 +6192,7 @@
         <v>1523.624069038473</v>
       </c>
       <c r="Y25" t="n">
-        <v>1296.204398352581</v>
+        <v>1296.204398352582</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2464.425998442684</v>
+        <v>1035.343050484326</v>
       </c>
       <c r="C26" t="n">
-        <v>2026.283525626108</v>
+        <v>597.2005776677493</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.373740800552</v>
+        <v>597.2005776677493</v>
       </c>
       <c r="E26" t="n">
-        <v>1156.598995958847</v>
+        <v>597.2005776677493</v>
       </c>
       <c r="F26" t="n">
-        <v>728.731566368055</v>
+        <v>329.259814722999</v>
       </c>
       <c r="G26" t="n">
         <v>329.259814722999</v>
@@ -6226,52 +6226,52 @@
         <v>132.2241395513133</v>
       </c>
       <c r="J26" t="n">
-        <v>292.4446243464238</v>
+        <v>292.4446243464239</v>
       </c>
       <c r="K26" t="n">
-        <v>532.5735981782154</v>
+        <v>532.5735981782157</v>
       </c>
       <c r="L26" t="n">
-        <v>830.474823872902</v>
+        <v>830.4748238729023</v>
       </c>
       <c r="M26" t="n">
-        <v>1161.947336879331</v>
+        <v>1161.947336879332</v>
       </c>
       <c r="N26" t="n">
         <v>1498.783421690048</v>
       </c>
       <c r="O26" t="n">
-        <v>1816.848185029975</v>
+        <v>2239.49058389131</v>
       </c>
       <c r="P26" t="n">
-        <v>2557.555347231237</v>
+        <v>2510.951500713566</v>
       </c>
       <c r="Q26" t="n">
-        <v>2874.174788177349</v>
+        <v>2714.807343979805</v>
       </c>
       <c r="R26" t="n">
         <v>2992.756210914188</v>
       </c>
       <c r="S26" t="n">
-        <v>2992.756210914188</v>
+        <v>2952.994878983684</v>
       </c>
       <c r="T26" t="n">
-        <v>2992.756210914188</v>
+        <v>2952.994878983684</v>
       </c>
       <c r="U26" t="n">
-        <v>2992.756210914188</v>
+        <v>2693.926662679236</v>
       </c>
       <c r="V26" t="n">
-        <v>2992.756210914188</v>
+        <v>2693.926662679236</v>
       </c>
       <c r="W26" t="n">
-        <v>2992.756210914188</v>
+        <v>2289.071208090269</v>
       </c>
       <c r="X26" t="n">
-        <v>2992.756210914188</v>
+        <v>1869.92874466958</v>
       </c>
       <c r="Y26" t="n">
-        <v>2890.725568927592</v>
+        <v>1461.642620969234</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>59.85512421828376</v>
       </c>
       <c r="I27" t="n">
-        <v>94.630475943902</v>
+        <v>94.63047594390203</v>
       </c>
       <c r="J27" t="n">
-        <v>162.9029811802114</v>
+        <v>190.0566990676654</v>
       </c>
       <c r="K27" t="n">
-        <v>326.0015957639167</v>
+        <v>353.1553136513709</v>
       </c>
       <c r="L27" t="n">
-        <v>545.3078106908888</v>
+        <v>572.4615285783431</v>
       </c>
       <c r="M27" t="n">
-        <v>801.2278195047697</v>
+        <v>828.3815373922242</v>
       </c>
       <c r="N27" t="n">
-        <v>1063.921269438201</v>
+        <v>1091.074987325656</v>
       </c>
       <c r="O27" t="n">
-        <v>1304.234454796113</v>
+        <v>1331.388172683568</v>
       </c>
       <c r="P27" t="n">
-        <v>1497.106972430504</v>
+        <v>1524.260690317959</v>
       </c>
       <c r="Q27" t="n">
-        <v>1626.037142700873</v>
+        <v>1653.190860588328</v>
       </c>
       <c r="R27" t="n">
         <v>1688.747955315886</v>
@@ -6363,19 +6363,19 @@
         <v>1104.385779633594</v>
       </c>
       <c r="C28" t="n">
-        <v>931.824068116819</v>
+        <v>931.8240681168193</v>
       </c>
       <c r="D28" t="n">
-        <v>765.9460753183419</v>
+        <v>765.9460753183421</v>
       </c>
       <c r="E28" t="n">
-        <v>596.1880715690791</v>
+        <v>596.1880715690793</v>
       </c>
       <c r="F28" t="n">
-        <v>419.4810175308353</v>
+        <v>419.4810175308355</v>
       </c>
       <c r="G28" t="n">
-        <v>254.753715616632</v>
+        <v>254.7537156166319</v>
       </c>
       <c r="H28" t="n">
         <v>122.5330472401835</v>
@@ -6387,22 +6387,22 @@
         <v>206.3021551055049</v>
       </c>
       <c r="K28" t="n">
-        <v>579.441049220674</v>
+        <v>579.4410492206741</v>
       </c>
       <c r="L28" t="n">
         <v>1123.544022405155</v>
       </c>
       <c r="M28" t="n">
-        <v>1522.963276452344</v>
+        <v>1617.715185639647</v>
       </c>
       <c r="N28" t="n">
-        <v>2094.802513009419</v>
+        <v>1747.295619039077</v>
       </c>
       <c r="O28" t="n">
-        <v>2634.160265680477</v>
+        <v>2286.653371710135</v>
       </c>
       <c r="P28" t="n">
-        <v>2736.574457205816</v>
+        <v>2736.574457205815</v>
       </c>
       <c r="Q28" t="n">
         <v>2975.673509741517</v>
@@ -6414,7 +6414,7 @@
         <v>2848.571536357277</v>
       </c>
       <c r="T28" t="n">
-        <v>2606.383611191963</v>
+        <v>2606.383611191962</v>
       </c>
       <c r="U28" t="n">
         <v>2327.997736248339</v>
@@ -6423,7 +6423,7 @@
         <v>2041.042228118769</v>
       </c>
       <c r="W28" t="n">
-        <v>1769.01582370506</v>
+        <v>1769.015823705061</v>
       </c>
       <c r="X28" t="n">
         <v>1523.624069038473</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2026.283525626108</v>
+        <v>1333.379133505472</v>
       </c>
       <c r="C29" t="n">
-        <v>2026.283525626108</v>
+        <v>895.2366606888953</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.373740800552</v>
+        <v>459.3268758633398</v>
       </c>
       <c r="E29" t="n">
-        <v>1156.598995958847</v>
+        <v>459.3268758633398</v>
       </c>
       <c r="F29" t="n">
-        <v>728.731566368055</v>
+        <v>459.3268758633398</v>
       </c>
       <c r="G29" t="n">
-        <v>329.259814722999</v>
+        <v>59.85512421828378</v>
       </c>
       <c r="H29" t="n">
-        <v>59.85512421828376</v>
+        <v>59.85512421828378</v>
       </c>
       <c r="I29" t="n">
         <v>132.2241395513133</v>
       </c>
       <c r="J29" t="n">
-        <v>292.4446243464238</v>
+        <v>705.300402652246</v>
       </c>
       <c r="K29" t="n">
-        <v>532.5735981782154</v>
+        <v>945.4293764840378</v>
       </c>
       <c r="L29" t="n">
-        <v>830.474823872902</v>
+        <v>1243.330602178724</v>
       </c>
       <c r="M29" t="n">
-        <v>1161.947336879331</v>
+        <v>1574.803115185154</v>
       </c>
       <c r="N29" t="n">
-        <v>1498.783421690048</v>
+        <v>1911.63919999587</v>
       </c>
       <c r="O29" t="n">
-        <v>1816.848185029975</v>
+        <v>2229.703963335798</v>
       </c>
       <c r="P29" t="n">
-        <v>2557.555347231237</v>
+        <v>2501.164880158053</v>
       </c>
       <c r="Q29" t="n">
-        <v>2874.174788177349</v>
+        <v>2705.020723424292</v>
       </c>
       <c r="R29" t="n">
-        <v>2992.756210914188</v>
+        <v>2992.756210914189</v>
       </c>
       <c r="S29" t="n">
-        <v>2992.756210914188</v>
+        <v>2992.756210914189</v>
       </c>
       <c r="T29" t="n">
-        <v>2992.756210914188</v>
+        <v>2781.120397812657</v>
       </c>
       <c r="U29" t="n">
-        <v>2733.68799460974</v>
+        <v>2522.052181508208</v>
       </c>
       <c r="V29" t="n">
-        <v>2371.071044543566</v>
+        <v>2522.052181508208</v>
       </c>
       <c r="W29" t="n">
-        <v>2026.283525626108</v>
+        <v>2160.807720626508</v>
       </c>
       <c r="X29" t="n">
-        <v>2026.283525626108</v>
+        <v>1741.665257205819</v>
       </c>
       <c r="Y29" t="n">
-        <v>2026.283525626108</v>
+        <v>1333.379133505472</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1859.051700564382</v>
+        <v>555.0434449660797</v>
       </c>
       <c r="C30" t="n">
-        <v>1752.595239401024</v>
+        <v>448.586983802722</v>
       </c>
       <c r="D30" t="n">
-        <v>1657.504950547577</v>
+        <v>353.4966949492753</v>
       </c>
       <c r="E30" t="n">
-        <v>1563.384535874531</v>
+        <v>259.376280276229</v>
       </c>
       <c r="F30" t="n">
-        <v>1480.000697490693</v>
+        <v>175.9924418923906</v>
       </c>
       <c r="G30" t="n">
-        <v>1395.646151266143</v>
+        <v>91.63789566784084</v>
       </c>
       <c r="H30" t="n">
-        <v>1363.863379816586</v>
+        <v>59.85512421828378</v>
       </c>
       <c r="I30" t="n">
-        <v>1398.638731542204</v>
+        <v>94.63047594390203</v>
       </c>
       <c r="J30" t="n">
-        <v>1494.064954665968</v>
+        <v>190.0566990676654</v>
       </c>
       <c r="K30" t="n">
-        <v>1657.163569249673</v>
+        <v>353.1553136513708</v>
       </c>
       <c r="L30" t="n">
-        <v>1876.469784176645</v>
+        <v>572.4615285783428</v>
       </c>
       <c r="M30" t="n">
-        <v>2132.389792990526</v>
+        <v>828.3815373922238</v>
       </c>
       <c r="N30" t="n">
-        <v>2395.083242923957</v>
+        <v>1063.921269438201</v>
       </c>
       <c r="O30" t="n">
-        <v>2635.39642828187</v>
+        <v>1304.234454796113</v>
       </c>
       <c r="P30" t="n">
-        <v>2828.26894591626</v>
+        <v>1497.106972430504</v>
       </c>
       <c r="Q30" t="n">
-        <v>2957.199116186629</v>
+        <v>1626.037142700873</v>
       </c>
       <c r="R30" t="n">
-        <v>2992.756210914188</v>
+        <v>1688.747955315886</v>
       </c>
       <c r="S30" t="n">
-        <v>2948.442667054427</v>
+        <v>1644.434411456125</v>
       </c>
       <c r="T30" t="n">
-        <v>2822.417836915799</v>
+        <v>1518.409581317497</v>
       </c>
       <c r="U30" t="n">
-        <v>2646.149088830851</v>
+        <v>1342.140833232549</v>
       </c>
       <c r="V30" t="n">
-        <v>2447.03157089285</v>
+        <v>1143.023315294548</v>
       </c>
       <c r="W30" t="n">
-        <v>2261.708816626044</v>
+        <v>957.7005610277422</v>
       </c>
       <c r="X30" t="n">
-        <v>2106.841380864924</v>
+        <v>802.8331252666221</v>
       </c>
       <c r="Y30" t="n">
-        <v>1980.355601644145</v>
+        <v>676.3473460458429</v>
       </c>
     </row>
     <row r="31">
@@ -6600,61 +6600,61 @@
         <v>1104.385779633595</v>
       </c>
       <c r="C31" t="n">
-        <v>931.8240681168195</v>
+        <v>931.8240681168199</v>
       </c>
       <c r="D31" t="n">
-        <v>765.9460753183423</v>
+        <v>765.9460753183428</v>
       </c>
       <c r="E31" t="n">
-        <v>596.1880715690795</v>
+        <v>596.18807156908</v>
       </c>
       <c r="F31" t="n">
-        <v>419.4810175308357</v>
+        <v>419.4810175308362</v>
       </c>
       <c r="G31" t="n">
-        <v>254.7537156166318</v>
+        <v>254.753715616632</v>
       </c>
       <c r="H31" t="n">
-        <v>122.5330472401834</v>
+        <v>122.5330472401835</v>
       </c>
       <c r="I31" t="n">
-        <v>59.85512421828376</v>
+        <v>59.85512421828378</v>
       </c>
       <c r="J31" t="n">
-        <v>206.3021551055049</v>
+        <v>119.722469940815</v>
       </c>
       <c r="K31" t="n">
-        <v>579.441049220674</v>
+        <v>218.1029094848487</v>
       </c>
       <c r="L31" t="n">
-        <v>1123.544022405155</v>
+        <v>762.2058826693299</v>
       </c>
       <c r="M31" t="n">
-        <v>1256.280635789957</v>
+        <v>1354.426363235045</v>
       </c>
       <c r="N31" t="n">
-        <v>1747.295619039078</v>
+        <v>1926.26559979212</v>
       </c>
       <c r="O31" t="n">
-        <v>2286.653371710136</v>
+        <v>2465.623352463178</v>
       </c>
       <c r="P31" t="n">
-        <v>2736.574457205816</v>
+        <v>2736.574457205817</v>
       </c>
       <c r="Q31" t="n">
-        <v>2975.673509741517</v>
+        <v>2975.673509741518</v>
       </c>
       <c r="R31" t="n">
-        <v>2992.756210914188</v>
+        <v>2992.756210914189</v>
       </c>
       <c r="S31" t="n">
-        <v>2848.571536357277</v>
+        <v>2848.571536357278</v>
       </c>
       <c r="T31" t="n">
         <v>2606.383611191963</v>
       </c>
       <c r="U31" t="n">
-        <v>2327.997736248339</v>
+        <v>2327.99773624834</v>
       </c>
       <c r="V31" t="n">
         <v>2041.04222811877</v>
@@ -6663,7 +6663,7 @@
         <v>1769.015823705061</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.624069038473</v>
+        <v>1523.624069038474</v>
       </c>
       <c r="Y31" t="n">
         <v>1296.204398352582</v>
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1594.741468775424</v>
+        <v>1795.549556292913</v>
       </c>
       <c r="C32" t="n">
-        <v>1156.598995958847</v>
+        <v>1357.407083476336</v>
       </c>
       <c r="D32" t="n">
-        <v>1156.598995958847</v>
+        <v>921.4972986507809</v>
       </c>
       <c r="E32" t="n">
-        <v>1156.598995958847</v>
+        <v>487.722553809076</v>
       </c>
       <c r="F32" t="n">
-        <v>728.731566368055</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="G32" t="n">
-        <v>329.259814722999</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="H32" t="n">
         <v>59.85512421828376</v>
       </c>
       <c r="I32" t="n">
-        <v>132.2241395513132</v>
+        <v>132.2241395513133</v>
       </c>
       <c r="J32" t="n">
-        <v>727.6993117993416</v>
+        <v>727.6993117993417</v>
       </c>
       <c r="K32" t="n">
-        <v>967.8282856311332</v>
+        <v>967.8282856311333</v>
       </c>
       <c r="L32" t="n">
         <v>1265.72951132582</v>
@@ -6727,25 +6727,25 @@
         <v>2992.756210914188</v>
       </c>
       <c r="S32" t="n">
-        <v>2992.756210914188</v>
+        <v>2952.994878983684</v>
       </c>
       <c r="T32" t="n">
-        <v>2781.120397812656</v>
+        <v>2741.359065882153</v>
       </c>
       <c r="U32" t="n">
-        <v>2522.052181508207</v>
+        <v>2741.359065882153</v>
       </c>
       <c r="V32" t="n">
-        <v>2159.435231442034</v>
+        <v>2378.742115815979</v>
       </c>
       <c r="W32" t="n">
-        <v>1754.579776853067</v>
+        <v>2378.742115815979</v>
       </c>
       <c r="X32" t="n">
-        <v>1594.741468775424</v>
+        <v>2221.849126777821</v>
       </c>
       <c r="Y32" t="n">
-        <v>1594.741468775424</v>
+        <v>2221.849126777821</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>59.85512421828376</v>
       </c>
       <c r="I33" t="n">
-        <v>67.47675805644803</v>
+        <v>94.630475943902</v>
       </c>
       <c r="J33" t="n">
-        <v>162.9029811802114</v>
+        <v>190.0566990676654</v>
       </c>
       <c r="K33" t="n">
-        <v>326.0015957639167</v>
+        <v>353.1553136513708</v>
       </c>
       <c r="L33" t="n">
-        <v>545.3078106908888</v>
+        <v>572.4615285783428</v>
       </c>
       <c r="M33" t="n">
-        <v>801.2278195047697</v>
+        <v>828.3815373922238</v>
       </c>
       <c r="N33" t="n">
-        <v>1063.921269438201</v>
+        <v>1091.074987325655</v>
       </c>
       <c r="O33" t="n">
-        <v>1304.234454796113</v>
+        <v>1331.388172683568</v>
       </c>
       <c r="P33" t="n">
-        <v>1497.106972430504</v>
+        <v>1524.260690317959</v>
       </c>
       <c r="Q33" t="n">
-        <v>1626.037142700873</v>
+        <v>1653.190860588327</v>
       </c>
       <c r="R33" t="n">
         <v>1688.747955315886</v>
@@ -6846,7 +6846,7 @@
         <v>596.1880715690791</v>
       </c>
       <c r="F34" t="n">
-        <v>419.4810175308353</v>
+        <v>419.4810175308355</v>
       </c>
       <c r="G34" t="n">
         <v>254.7537156166319</v>
@@ -6861,7 +6861,7 @@
         <v>206.3021551055049</v>
       </c>
       <c r="K34" t="n">
-        <v>579.441049220674</v>
+        <v>579.4410492206741</v>
       </c>
       <c r="L34" t="n">
         <v>1123.544022405155</v>
@@ -6870,13 +6870,13 @@
         <v>1256.280635789957</v>
       </c>
       <c r="N34" t="n">
-        <v>1747.295619039077</v>
+        <v>1828.119872347032</v>
       </c>
       <c r="O34" t="n">
-        <v>2286.653371710135</v>
+        <v>2367.47762501809</v>
       </c>
       <c r="P34" t="n">
-        <v>2736.574457205815</v>
+        <v>2817.39871051377</v>
       </c>
       <c r="Q34" t="n">
         <v>2975.673509741517</v>
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1150.628559310599</v>
+        <v>1160.692181895028</v>
       </c>
       <c r="C35" t="n">
-        <v>1150.628559310599</v>
+        <v>722.5497090784515</v>
       </c>
       <c r="D35" t="n">
-        <v>1150.628559310599</v>
+        <v>481.7521171608278</v>
       </c>
       <c r="E35" t="n">
-        <v>716.8538144688943</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="F35" t="n">
-        <v>716.8538144688943</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="G35" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="H35" t="n">
-        <v>47.97737231912297</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I35" t="n">
-        <v>120.3463876521521</v>
+        <v>120.3463876521525</v>
       </c>
       <c r="J35" t="n">
-        <v>280.5668724472627</v>
+        <v>280.5668724472629</v>
       </c>
       <c r="K35" t="n">
-        <v>520.6958462790542</v>
+        <v>520.6958462790546</v>
       </c>
       <c r="L35" t="n">
-        <v>818.5970719737406</v>
+        <v>818.5970719737411</v>
       </c>
       <c r="M35" t="n">
         <v>1150.06958498017</v>
@@ -6958,31 +6958,31 @@
         <v>2076.431349953069</v>
       </c>
       <c r="Q35" t="n">
-        <v>2280.287193219308</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R35" t="n">
-        <v>2398.868615956148</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S35" t="n">
-        <v>2359.107284025645</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T35" t="n">
-        <v>2147.471470924113</v>
+        <v>2187.232802854617</v>
       </c>
       <c r="U35" t="n">
-        <v>2147.471470924113</v>
+        <v>1928.164586550168</v>
       </c>
       <c r="V35" t="n">
-        <v>1981.783584384473</v>
+        <v>1565.547636483995</v>
       </c>
       <c r="W35" t="n">
-        <v>1576.928129795507</v>
+        <v>1160.692181895028</v>
       </c>
       <c r="X35" t="n">
-        <v>1576.928129795507</v>
+        <v>1160.692181895028</v>
       </c>
       <c r="Y35" t="n">
-        <v>1576.928129795507</v>
+        <v>1160.692181895028</v>
       </c>
     </row>
     <row r="36">
@@ -7010,22 +7010,22 @@
         <v>79.76014376868002</v>
       </c>
       <c r="H36" t="n">
-        <v>47.97737231912297</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I36" t="n">
-        <v>55.59900615728716</v>
+        <v>82.75272404474121</v>
       </c>
       <c r="J36" t="n">
-        <v>151.0252292810505</v>
+        <v>178.1789471685046</v>
       </c>
       <c r="K36" t="n">
-        <v>314.1238438647559</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L36" t="n">
-        <v>533.4300587917279</v>
+        <v>560.5837766791822</v>
       </c>
       <c r="M36" t="n">
-        <v>789.3500676056088</v>
+        <v>816.5037854930631</v>
       </c>
       <c r="N36" t="n">
         <v>1052.04351753904</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>699.2248099998529</v>
+        <v>732.8821344218819</v>
       </c>
       <c r="C37" t="n">
-        <v>526.6630984830779</v>
+        <v>560.3204229051069</v>
       </c>
       <c r="D37" t="n">
-        <v>526.6630984830779</v>
+        <v>394.4424301066295</v>
       </c>
       <c r="E37" t="n">
-        <v>356.9050947338152</v>
+        <v>224.6844263573668</v>
       </c>
       <c r="F37" t="n">
-        <v>180.1980406955714</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="G37" t="n">
-        <v>180.1980406955714</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="H37" t="n">
-        <v>47.97737231912297</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I37" t="n">
-        <v>47.97737231912297</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="J37" t="n">
-        <v>107.8447180416542</v>
+        <v>194.4244032063441</v>
       </c>
       <c r="K37" t="n">
-        <v>480.9836121568234</v>
+        <v>292.8048427503778</v>
       </c>
       <c r="L37" t="n">
-        <v>1025.086585341304</v>
+        <v>418.6979341668979</v>
       </c>
       <c r="M37" t="n">
-        <v>1192.02036554594</v>
+        <v>1001.238036749745</v>
       </c>
       <c r="N37" t="n">
-        <v>1321.600798945371</v>
+        <v>1573.07727330682</v>
       </c>
       <c r="O37" t="n">
-        <v>1860.958551616429</v>
+        <v>1692.765776752097</v>
       </c>
       <c r="P37" t="n">
-        <v>2310.879637112108</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q37" t="n">
-        <v>2381.785914783477</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R37" t="n">
-        <v>2398.868615956148</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.683941399237</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T37" t="n">
-        <v>2012.496016233923</v>
+        <v>2234.87996598025</v>
       </c>
       <c r="U37" t="n">
-        <v>1734.110141290299</v>
+        <v>1956.494091036626</v>
       </c>
       <c r="V37" t="n">
-        <v>1447.15463316073</v>
+        <v>1669.538582907057</v>
       </c>
       <c r="W37" t="n">
-        <v>1175.128228747021</v>
+        <v>1397.512178493348</v>
       </c>
       <c r="X37" t="n">
-        <v>929.7364740804339</v>
+        <v>1152.120423826761</v>
       </c>
       <c r="Y37" t="n">
-        <v>702.3168033945421</v>
+        <v>924.700753140869</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1355.80437480296</v>
+        <v>1352.647108669363</v>
       </c>
       <c r="C38" t="n">
-        <v>917.6619019863833</v>
+        <v>914.5046358527861</v>
       </c>
       <c r="D38" t="n">
-        <v>481.7521171608278</v>
+        <v>909.6195467516201</v>
       </c>
       <c r="E38" t="n">
-        <v>47.97737231912297</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="F38" t="n">
-        <v>47.97737231912297</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="G38" t="n">
-        <v>47.97737231912297</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="H38" t="n">
-        <v>47.97737231912297</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I38" t="n">
-        <v>120.3463876521525</v>
+        <v>120.3463876521526</v>
       </c>
       <c r="J38" t="n">
         <v>280.5668724472629</v>
       </c>
       <c r="K38" t="n">
-        <v>520.6958462790546</v>
+        <v>520.6958462790548</v>
       </c>
       <c r="L38" t="n">
-        <v>818.5970719737411</v>
+        <v>818.5970719737413</v>
       </c>
       <c r="M38" t="n">
-        <v>1150.06958498017</v>
+        <v>1150.069584980171</v>
       </c>
       <c r="N38" t="n">
         <v>1486.905669790887</v>
       </c>
       <c r="O38" t="n">
-        <v>1804.970433130814</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P38" t="n">
         <v>2076.431349953069</v>
@@ -7198,28 +7198,28 @@
         <v>2280.287193219309</v>
       </c>
       <c r="R38" t="n">
-        <v>2398.868615956148</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S38" t="n">
-        <v>2398.868615956148</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T38" t="n">
-        <v>2398.868615956148</v>
+        <v>2187.232802854617</v>
       </c>
       <c r="U38" t="n">
-        <v>2398.868615956148</v>
+        <v>2187.232802854617</v>
       </c>
       <c r="V38" t="n">
-        <v>2398.868615956148</v>
+        <v>2187.232802854617</v>
       </c>
       <c r="W38" t="n">
-        <v>2398.868615956148</v>
+        <v>2187.232802854617</v>
       </c>
       <c r="X38" t="n">
-        <v>2190.390068988214</v>
+        <v>2187.232802854617</v>
       </c>
       <c r="Y38" t="n">
-        <v>1782.103945287868</v>
+        <v>1778.94667915427</v>
       </c>
     </row>
     <row r="39">
@@ -7247,16 +7247,16 @@
         <v>79.76014376868002</v>
       </c>
       <c r="H39" t="n">
-        <v>47.97737231912297</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I39" t="n">
-        <v>55.59900615728716</v>
+        <v>55.59900615728705</v>
       </c>
       <c r="J39" t="n">
         <v>151.0252292810505</v>
       </c>
       <c r="K39" t="n">
-        <v>314.1238438647559</v>
+        <v>314.1238438647558</v>
       </c>
       <c r="L39" t="n">
         <v>533.4300587917279</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>654.6828592324659</v>
+        <v>732.8821344218819</v>
       </c>
       <c r="C40" t="n">
-        <v>482.1211477156909</v>
+        <v>560.3204229051069</v>
       </c>
       <c r="D40" t="n">
-        <v>316.2431549172136</v>
+        <v>394.4424301066295</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4851511679508</v>
+        <v>224.6844263573668</v>
       </c>
       <c r="F40" t="n">
-        <v>47.97737231912297</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="G40" t="n">
-        <v>47.97737231912297</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="H40" t="n">
-        <v>47.97737231912297</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I40" t="n">
-        <v>47.97737231912297</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="J40" t="n">
-        <v>194.4244032063441</v>
+        <v>107.8447180416542</v>
       </c>
       <c r="K40" t="n">
-        <v>567.5632973215133</v>
+        <v>346.9880041123251</v>
       </c>
       <c r="L40" t="n">
-        <v>1111.666270505994</v>
+        <v>891.0909772968063</v>
       </c>
       <c r="M40" t="n">
-        <v>1244.402883890797</v>
+        <v>1023.827590681608</v>
       </c>
       <c r="N40" t="n">
-        <v>1373.983317290227</v>
+        <v>1153.408024081039</v>
       </c>
       <c r="O40" t="n">
-        <v>1692.765776752096</v>
+        <v>1692.765776752097</v>
       </c>
       <c r="P40" t="n">
-        <v>2142.686862247776</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q40" t="n">
-        <v>2381.785914783477</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R40" t="n">
-        <v>2398.868615956148</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S40" t="n">
-        <v>2398.868615956148</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T40" t="n">
-        <v>2156.680690790834</v>
+        <v>2234.87996598025</v>
       </c>
       <c r="U40" t="n">
-        <v>1878.29481584721</v>
+        <v>1956.494091036626</v>
       </c>
       <c r="V40" t="n">
-        <v>1591.339307717641</v>
+        <v>1669.538582907057</v>
       </c>
       <c r="W40" t="n">
-        <v>1319.312903303932</v>
+        <v>1397.512178493348</v>
       </c>
       <c r="X40" t="n">
-        <v>1073.921148637345</v>
+        <v>1152.120423826761</v>
       </c>
       <c r="Y40" t="n">
-        <v>846.5014779514531</v>
+        <v>924.700753140869</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1254.597033815599</v>
+        <v>1152.76359929445</v>
       </c>
       <c r="C41" t="n">
-        <v>1254.597033815599</v>
+        <v>1152.76359929445</v>
       </c>
       <c r="D41" t="n">
-        <v>818.6872489900438</v>
+        <v>716.8538144688943</v>
       </c>
       <c r="E41" t="n">
-        <v>384.912504148339</v>
+        <v>716.8538144688943</v>
       </c>
       <c r="F41" t="n">
-        <v>384.912504148339</v>
+        <v>716.8538144688943</v>
       </c>
       <c r="G41" t="n">
         <v>317.3820628238382</v>
       </c>
       <c r="H41" t="n">
-        <v>47.97737231912297</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I41" t="n">
-        <v>120.3463876521522</v>
+        <v>120.3463876521521</v>
       </c>
       <c r="J41" t="n">
-        <v>280.5668724472627</v>
+        <v>280.5668724472631</v>
       </c>
       <c r="K41" t="n">
-        <v>520.6958462790544</v>
+        <v>520.6958462790549</v>
       </c>
       <c r="L41" t="n">
-        <v>818.5970719737409</v>
+        <v>818.5970719737413</v>
       </c>
       <c r="M41" t="n">
-        <v>1150.06958498017</v>
+        <v>1150.069584980171</v>
       </c>
       <c r="N41" t="n">
-        <v>1486.905669790887</v>
+        <v>1486.905669790888</v>
       </c>
       <c r="O41" t="n">
-        <v>1804.970433130814</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P41" t="n">
-        <v>2076.431349953069</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q41" t="n">
-        <v>2280.287193219308</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R41" t="n">
-        <v>2398.868615956148</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S41" t="n">
-        <v>2359.107284025645</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T41" t="n">
-        <v>2359.107284025645</v>
+        <v>2385.047641004452</v>
       </c>
       <c r="U41" t="n">
-        <v>2100.039067721196</v>
+        <v>2385.047641004452</v>
       </c>
       <c r="V41" t="n">
-        <v>2100.039067721196</v>
+        <v>2385.047641004452</v>
       </c>
       <c r="W41" t="n">
-        <v>2100.039067721196</v>
+        <v>1980.192186415486</v>
       </c>
       <c r="X41" t="n">
-        <v>1680.896604300507</v>
+        <v>1561.049722994796</v>
       </c>
       <c r="Y41" t="n">
-        <v>1680.896604300507</v>
+        <v>1152.76359929445</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1265.164105606342</v>
+        <v>543.1656930669189</v>
       </c>
       <c r="C42" t="n">
-        <v>1158.707644442984</v>
+        <v>436.7092319035612</v>
       </c>
       <c r="D42" t="n">
-        <v>1063.617355589538</v>
+        <v>341.6189430501145</v>
       </c>
       <c r="E42" t="n">
-        <v>969.4969409164912</v>
+        <v>247.4985283770682</v>
       </c>
       <c r="F42" t="n">
-        <v>886.1131025326529</v>
+        <v>164.1146899932298</v>
       </c>
       <c r="G42" t="n">
-        <v>801.7585563081032</v>
+        <v>79.76014376868005</v>
       </c>
       <c r="H42" t="n">
-        <v>769.9757848585461</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I42" t="n">
-        <v>777.5974186967106</v>
+        <v>82.75272404474124</v>
       </c>
       <c r="J42" t="n">
-        <v>873.023641820474</v>
+        <v>151.0252292810501</v>
       </c>
       <c r="K42" t="n">
-        <v>1036.122256404179</v>
+        <v>314.1238438647555</v>
       </c>
       <c r="L42" t="n">
-        <v>1255.428471331152</v>
+        <v>533.4300587917276</v>
       </c>
       <c r="M42" t="n">
-        <v>1511.348480145032</v>
+        <v>789.3500676056086</v>
       </c>
       <c r="N42" t="n">
-        <v>1774.041930078464</v>
+        <v>1052.04351753904</v>
       </c>
       <c r="O42" t="n">
-        <v>2014.355115436376</v>
+        <v>1292.356702896953</v>
       </c>
       <c r="P42" t="n">
-        <v>2207.227633070767</v>
+        <v>1485.229220531343</v>
       </c>
       <c r="Q42" t="n">
-        <v>2336.157803341135</v>
+        <v>1614.159390801712</v>
       </c>
       <c r="R42" t="n">
-        <v>2398.868615956148</v>
+        <v>1676.870203416725</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.555072096387</v>
+        <v>1632.556659556964</v>
       </c>
       <c r="T42" t="n">
-        <v>2228.53024195776</v>
+        <v>1506.531829418336</v>
       </c>
       <c r="U42" t="n">
-        <v>2052.261493872811</v>
+        <v>1330.263081333388</v>
       </c>
       <c r="V42" t="n">
-        <v>1853.14397593481</v>
+        <v>1131.145563395387</v>
       </c>
       <c r="W42" t="n">
-        <v>1667.821221668004</v>
+        <v>945.8228091285814</v>
       </c>
       <c r="X42" t="n">
-        <v>1512.953785906884</v>
+        <v>790.9553733674613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1386.468006686105</v>
+        <v>664.4695941466821</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>732.8821344218819</v>
+        <v>654.6828592324669</v>
       </c>
       <c r="C43" t="n">
-        <v>560.3204229051069</v>
+        <v>482.1211477156918</v>
       </c>
       <c r="D43" t="n">
-        <v>394.4424301066295</v>
+        <v>316.2431549172145</v>
       </c>
       <c r="E43" t="n">
-        <v>224.6844263573668</v>
+        <v>146.4851511679518</v>
       </c>
       <c r="F43" t="n">
-        <v>47.97737231912297</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="G43" t="n">
-        <v>47.97737231912297</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H43" t="n">
-        <v>47.97737231912297</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I43" t="n">
-        <v>47.97737231912297</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J43" t="n">
-        <v>194.4244032063441</v>
+        <v>107.8447180416543</v>
       </c>
       <c r="K43" t="n">
-        <v>567.5632973215133</v>
+        <v>346.9880041123252</v>
       </c>
       <c r="L43" t="n">
-        <v>1111.666270505994</v>
+        <v>891.0909772968064</v>
       </c>
       <c r="M43" t="n">
-        <v>1443.496839907389</v>
+        <v>1023.827590681609</v>
       </c>
       <c r="N43" t="n">
-        <v>1573.07727330682</v>
+        <v>1153.408024081039</v>
       </c>
       <c r="O43" t="n">
-        <v>1692.765776752096</v>
+        <v>1692.765776752097</v>
       </c>
       <c r="P43" t="n">
-        <v>2142.686862247776</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q43" t="n">
-        <v>2381.785914783477</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R43" t="n">
-        <v>2398.868615956148</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S43" t="n">
-        <v>2398.868615956148</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T43" t="n">
-        <v>2156.680690790834</v>
+        <v>2156.680690790835</v>
       </c>
       <c r="U43" t="n">
-        <v>1956.494091036626</v>
+        <v>1878.294815847211</v>
       </c>
       <c r="V43" t="n">
-        <v>1669.538582907057</v>
+        <v>1591.339307717642</v>
       </c>
       <c r="W43" t="n">
-        <v>1397.512178493348</v>
+        <v>1319.312903303933</v>
       </c>
       <c r="X43" t="n">
-        <v>1152.120423826761</v>
+        <v>1073.921148637346</v>
       </c>
       <c r="Y43" t="n">
-        <v>924.700753140869</v>
+        <v>846.501477951454</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>740.2850037612383</v>
+        <v>1309.091298396676</v>
       </c>
       <c r="C44" t="n">
-        <v>740.2850037612383</v>
+        <v>1309.091298396676</v>
       </c>
       <c r="D44" t="n">
-        <v>740.2850037612383</v>
+        <v>1309.091298396676</v>
       </c>
       <c r="E44" t="n">
-        <v>306.5102589195334</v>
+        <v>875.3165535549713</v>
       </c>
       <c r="F44" t="n">
-        <v>306.5102589195334</v>
+        <v>447.449123964179</v>
       </c>
       <c r="G44" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H44" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I44" t="n">
-        <v>120.3463876521526</v>
+        <v>120.3463876521525</v>
       </c>
       <c r="J44" t="n">
-        <v>280.5668724472631</v>
+        <v>280.566872447263</v>
       </c>
       <c r="K44" t="n">
         <v>520.6958462790549</v>
@@ -7660,40 +7660,40 @@
         <v>1150.069584980171</v>
       </c>
       <c r="N44" t="n">
-        <v>1486.905669790887</v>
+        <v>1486.905669790888</v>
       </c>
       <c r="O44" t="n">
         <v>1804.970433130815</v>
       </c>
       <c r="P44" t="n">
-        <v>2076.431349953069</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q44" t="n">
-        <v>2280.287193219309</v>
+        <v>2280.28719321931</v>
       </c>
       <c r="R44" t="n">
         <v>2398.868615956149</v>
       </c>
       <c r="S44" t="n">
-        <v>2398.868615956149</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="T44" t="n">
-        <v>2398.868615956149</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="U44" t="n">
-        <v>2398.868615956149</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="V44" t="n">
-        <v>2398.868615956149</v>
+        <v>1996.490333959473</v>
       </c>
       <c r="W44" t="n">
-        <v>1994.013161367182</v>
+        <v>1996.490333959473</v>
       </c>
       <c r="X44" t="n">
-        <v>1574.870697946493</v>
+        <v>1577.347870538783</v>
       </c>
       <c r="Y44" t="n">
-        <v>1166.584574246146</v>
+        <v>1309.091298396676</v>
       </c>
     </row>
     <row r="45">
@@ -7718,25 +7718,25 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G45" t="n">
-        <v>79.76014376868002</v>
+        <v>79.76014376868005</v>
       </c>
       <c r="H45" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I45" t="n">
-        <v>55.59900615728709</v>
+        <v>55.59900615728668</v>
       </c>
       <c r="J45" t="n">
-        <v>151.0252292810505</v>
+        <v>151.0252292810501</v>
       </c>
       <c r="K45" t="n">
-        <v>314.1238438647558</v>
+        <v>314.1238438647555</v>
       </c>
       <c r="L45" t="n">
-        <v>533.4300587917279</v>
+        <v>533.4300587917276</v>
       </c>
       <c r="M45" t="n">
-        <v>789.3500676056088</v>
+        <v>789.3500676056086</v>
       </c>
       <c r="N45" t="n">
         <v>1052.04351753904</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>941.638367362036</v>
+        <v>755.8899393421434</v>
       </c>
       <c r="C46" t="n">
-        <v>769.0766558452609</v>
+        <v>583.3282278253683</v>
       </c>
       <c r="D46" t="n">
-        <v>603.1986630467836</v>
+        <v>417.4502350268911</v>
       </c>
       <c r="E46" t="n">
-        <v>433.4406592975209</v>
+        <v>417.4502350268911</v>
       </c>
       <c r="F46" t="n">
-        <v>256.7336052592771</v>
+        <v>240.7431809886473</v>
       </c>
       <c r="G46" t="n">
-        <v>92.00630334507352</v>
+        <v>180.1980406955714</v>
       </c>
       <c r="H46" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I46" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J46" t="n">
-        <v>194.4244032063441</v>
+        <v>107.8447180416543</v>
       </c>
       <c r="K46" t="n">
-        <v>567.5632973215133</v>
+        <v>206.2251575856879</v>
       </c>
       <c r="L46" t="n">
-        <v>1111.666270505995</v>
+        <v>332.118249002208</v>
       </c>
       <c r="M46" t="n">
-        <v>1443.49683990739</v>
+        <v>924.3387295679232</v>
       </c>
       <c r="N46" t="n">
-        <v>1573.07727330682</v>
+        <v>1496.177966124998</v>
       </c>
       <c r="O46" t="n">
-        <v>1692.765776752097</v>
+        <v>2035.535718796056</v>
       </c>
       <c r="P46" t="n">
-        <v>2142.686862247777</v>
+        <v>2310.879637112109</v>
       </c>
       <c r="Q46" t="n">
         <v>2381.785914783478</v>
@@ -7833,25 +7833,25 @@
         <v>2398.868615956149</v>
       </c>
       <c r="S46" t="n">
-        <v>2398.868615956149</v>
+        <v>2254.683941399238</v>
       </c>
       <c r="T46" t="n">
-        <v>2156.680690790834</v>
+        <v>2012.496016233924</v>
       </c>
       <c r="U46" t="n">
-        <v>1878.294815847211</v>
+        <v>1734.1101412903</v>
       </c>
       <c r="V46" t="n">
-        <v>1878.294815847211</v>
+        <v>1447.154633160731</v>
       </c>
       <c r="W46" t="n">
-        <v>1606.268411433502</v>
+        <v>1175.128228747022</v>
       </c>
       <c r="X46" t="n">
-        <v>1360.876656766915</v>
+        <v>1175.128228747022</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.456986081023</v>
+        <v>947.7085580611306</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
-        <v>270.3854908868857</v>
+        <v>87.99695232931526</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9093,13 +9093,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>199.630897534114</v>
       </c>
       <c r="O16" t="n">
-        <v>159.414111720849</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>87.22226426871208</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>174.6764917077917</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>4.784799925638865</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9570,13 +9570,13 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>159.4141117208487</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>9.075455469976987</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>407.9505832227726</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>148.2375309151107</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9801,13 +9801,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>323.3945095320582</v>
+        <v>365.0854038885755</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9889,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>426.9115140013475</v>
       </c>
       <c r="P26" t="n">
-        <v>473.9861064434413</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.902623919063</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>160.9772163611547</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10041,16 +10041,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>269.3764047094819</v>
+        <v>365.0854038885755</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>417.0260386927498</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>473.9861064434413</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.902623919063</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,25 +10269,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>365.0854038885759</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>170.2393062801011</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10518,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>365.0854038885755</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>88.25103187512877</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>34.5425927473068</v>
+        <v>454.3469587859041</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>142.1846934612497</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>201.1050060773664</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11217,22 +11217,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>142.1846934612498</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>201.1050060773664</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>201.1050060773666</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>174.6764917077926</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H11" t="n">
         <v>266.7106435996681</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.719647198285</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.5194549705166</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>156.2451043346675</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>84.55475600220038</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>31.51735141407721</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>130.9370126405401</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.36371861119834</v>
+        <v>36.14444838278925</v>
       </c>
       <c r="T14" t="n">
-        <v>209.5194549705166</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H16" t="n">
-        <v>6.91898075648551</v>
+        <v>44.09653125971232</v>
       </c>
       <c r="I16" t="n">
-        <v>62.05114379168072</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>12.81886889322334</v>
+        <v>247.8324840730892</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.36371861119833</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.30981997699362</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>98.39160954484726</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.05114379168072</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H20" t="n">
-        <v>74.6132141504458</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>61.87490491500014</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>92.31082150874617</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H22" t="n">
         <v>130.898461692684</v>
       </c>
       <c r="I22" t="n">
-        <v>62.05114379168072</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>50.96050256166293</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>395.4770341286055</v>
       </c>
       <c r="H23" t="n">
-        <v>214.3049218437493</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>209.5194549705165</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>72.53815131421288</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>158.3273999795816</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.36371861119833</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.5194549705165</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>303.192926896613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24682,22 +24682,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.36371861119833</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T29" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>59.4672563147933</v>
+        <v>43.17488377019362</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.36371861119833</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>256.7111137896156</v>
+        <v>259.6269796387057</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>193.1610709788525</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>194.9597728912682</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>186.8393590710549</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>163.0800288950615</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I37" t="n">
-        <v>62.05114379168072</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>77.41728243752124</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25396,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>426.7144487671455</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.4770341286055</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.36371861119833</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T38" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.4775341414042</v>
@@ -25456,7 +25456,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>208.5572772882277</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.41728243752173</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0800288950615</v>
@@ -25569,7 +25569,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I40" t="n">
-        <v>62.05114379168072</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>142.7428278113418</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>77.41728243752124</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -25636,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>328.6218972173497</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T41" t="n">
-        <v>209.5194549705165</v>
+        <v>195.8366897683362</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>77.41728243752087</v>
       </c>
       <c r="G43" t="n">
         <v>163.0800288950615</v>
@@ -25806,7 +25806,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I43" t="n">
-        <v>62.05114379168072</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>77.41728243752181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>139.5294763941991</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>266.7106435996681</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.36371861119833</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.5194549705165</v>
@@ -25924,16 +25924,16 @@
         <v>256.4775341414042</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>138.629256042657</v>
       </c>
     </row>
     <row r="45">
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>103.1403400049165</v>
       </c>
       <c r="H46" t="n">
-        <v>87.30981997699291</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.05114379168072</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>303932.4459437846</v>
+        <v>303932.4459437847</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>303932.4459437846</v>
+        <v>303932.4459437847</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>303932.4459437846</v>
+        <v>303932.4459437847</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>303932.4459437846</v>
+        <v>303932.4459437847</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>386586.3821540653</v>
+        <v>386586.3821540652</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>386586.3821540653</v>
+        <v>386586.3821540652</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>386586.3821540652</v>
+        <v>386586.3821540654</v>
       </c>
     </row>
     <row r="12">
@@ -26316,46 +26316,46 @@
         <v>444876.9379563229</v>
       </c>
       <c r="C2" t="n">
-        <v>444876.9379563229</v>
+        <v>444876.937956323</v>
       </c>
       <c r="D2" t="n">
-        <v>444876.9379563229</v>
+        <v>444876.937956323</v>
       </c>
       <c r="E2" t="n">
-        <v>270795.7157222384</v>
+        <v>270795.7157222385</v>
       </c>
       <c r="F2" t="n">
-        <v>270795.7157222384</v>
+        <v>270795.7157222385</v>
       </c>
       <c r="G2" t="n">
-        <v>270795.7157222384</v>
+        <v>270795.7157222385</v>
       </c>
       <c r="H2" t="n">
-        <v>270795.7157222384</v>
+        <v>270795.7157222385</v>
       </c>
       <c r="I2" t="n">
+        <v>321534.9846342057</v>
+      </c>
+      <c r="J2" t="n">
         <v>321534.9846342056</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>321534.9846342058</v>
       </c>
-      <c r="K2" t="n">
-        <v>321534.9846342057</v>
-      </c>
       <c r="L2" t="n">
-        <v>321534.9846342057</v>
+        <v>321534.9846342056</v>
       </c>
       <c r="M2" t="n">
         <v>270795.7157222385</v>
       </c>
       <c r="N2" t="n">
-        <v>270795.7157222384</v>
+        <v>270795.7157222385</v>
       </c>
       <c r="O2" t="n">
-        <v>270795.7157222384</v>
+        <v>270795.7157222385</v>
       </c>
       <c r="P2" t="n">
-        <v>270795.7157222385</v>
+        <v>270795.7157222386</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>560133.4314193969</v>
+        <v>560133.4314193972</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39481.79578470922</v>
+        <v>39481.79578470916</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>17681.23318360264</v>
       </c>
       <c r="F4" t="n">
-        <v>17681.23318360263</v>
+        <v>17681.23318360264</v>
       </c>
       <c r="G4" t="n">
-        <v>17681.23318360263</v>
+        <v>17681.23318360264</v>
       </c>
       <c r="H4" t="n">
-        <v>17681.23318360263</v>
+        <v>17681.23318360264</v>
       </c>
       <c r="I4" t="n">
-        <v>46702.59551343978</v>
+        <v>46702.59551343973</v>
       </c>
       <c r="J4" t="n">
-        <v>46702.5955134398</v>
+        <v>46702.59551343972</v>
       </c>
       <c r="K4" t="n">
         <v>46702.5955134398</v>
       </c>
       <c r="L4" t="n">
-        <v>46702.59551343976</v>
+        <v>46702.59551343977</v>
       </c>
       <c r="M4" t="n">
         <v>17681.23318360264</v>
@@ -26478,37 +26478,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46803.00533885186</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="F5" t="n">
-        <v>46803.00533885186</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="G5" t="n">
-        <v>46803.00533885187</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="H5" t="n">
-        <v>46803.00533885187</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="I5" t="n">
+        <v>55830.09678221408</v>
+      </c>
+      <c r="J5" t="n">
         <v>55830.09678221407</v>
       </c>
-      <c r="J5" t="n">
-        <v>55830.09678221408</v>
-      </c>
       <c r="K5" t="n">
-        <v>55830.09678221408</v>
+        <v>55830.09678221409</v>
       </c>
       <c r="L5" t="n">
         <v>55830.09678221407</v>
       </c>
       <c r="M5" t="n">
-        <v>46803.00533885187</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="N5" t="n">
-        <v>46803.00533885187</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="O5" t="n">
-        <v>46803.00533885187</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="P5" t="n">
         <v>46803.00533885189</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112518.6216444901</v>
+        <v>112486.7149269885</v>
       </c>
       <c r="C6" t="n">
-        <v>112518.62164449</v>
+        <v>112486.7149269885</v>
       </c>
       <c r="D6" t="n">
-        <v>112518.62164449</v>
+        <v>112486.7149269885</v>
       </c>
       <c r="E6" t="n">
-        <v>-353821.954219613</v>
+        <v>-354365.8645319209</v>
       </c>
       <c r="F6" t="n">
-        <v>206311.4771997839</v>
+        <v>205767.5668874763</v>
       </c>
       <c r="G6" t="n">
-        <v>206311.4771997839</v>
+        <v>205767.5668874763</v>
       </c>
       <c r="H6" t="n">
-        <v>206311.4771997838</v>
+        <v>205767.5668874763</v>
       </c>
       <c r="I6" t="n">
-        <v>179520.4965538426</v>
+        <v>179125.8193853938</v>
       </c>
       <c r="J6" t="n">
-        <v>219002.292338552</v>
+        <v>218607.6151701029</v>
       </c>
       <c r="K6" t="n">
-        <v>219002.2923385518</v>
+        <v>218607.615170103</v>
       </c>
       <c r="L6" t="n">
-        <v>219002.2923385519</v>
+        <v>218607.6151701028</v>
       </c>
       <c r="M6" t="n">
-        <v>93859.35461058085</v>
+        <v>93315.44429827304</v>
       </c>
       <c r="N6" t="n">
-        <v>206311.4771997839</v>
+        <v>205767.5668874763</v>
       </c>
       <c r="O6" t="n">
-        <v>206311.4771997838</v>
+        <v>205767.5668874763</v>
       </c>
       <c r="P6" t="n">
-        <v>206311.477199784</v>
+        <v>205767.5668874764</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>474.3212099228633</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="F3" t="n">
-        <v>474.3212099228633</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="G3" t="n">
-        <v>474.3212099228634</v>
+        <v>474.3212099228637</v>
       </c>
       <c r="H3" t="n">
-        <v>474.3212099228634</v>
+        <v>474.3212099228637</v>
       </c>
       <c r="I3" t="n">
-        <v>474.3212099228634</v>
+        <v>474.3212099228637</v>
       </c>
       <c r="J3" t="n">
-        <v>474.3212099228634</v>
+        <v>474.3212099228637</v>
       </c>
       <c r="K3" t="n">
-        <v>474.3212099228634</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="L3" t="n">
-        <v>474.3212099228634</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="M3" t="n">
-        <v>474.3212099228634</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="N3" t="n">
-        <v>474.3212099228634</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="O3" t="n">
-        <v>474.3212099228634</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="P3" t="n">
-        <v>474.3212099228635</v>
+        <v>474.3212099228636</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>599.717153989037</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="F4" t="n">
-        <v>599.717153989037</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="G4" t="n">
-        <v>599.717153989037</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="H4" t="n">
-        <v>599.717153989037</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="I4" t="n">
+        <v>748.189052728547</v>
+      </c>
+      <c r="J4" t="n">
         <v>748.1890527285469</v>
       </c>
-      <c r="J4" t="n">
-        <v>748.189052728547</v>
-      </c>
       <c r="K4" t="n">
-        <v>748.189052728547</v>
+        <v>748.1890527285472</v>
       </c>
       <c r="L4" t="n">
         <v>748.1890527285469</v>
       </c>
       <c r="M4" t="n">
-        <v>599.7171539890371</v>
+        <v>599.7171539890372</v>
       </c>
       <c r="N4" t="n">
-        <v>599.7171539890371</v>
+        <v>599.7171539890372</v>
       </c>
       <c r="O4" t="n">
-        <v>599.7171539890371</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="P4" t="n">
-        <v>599.7171539890372</v>
+        <v>599.7171539890373</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>474.3212099228633</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>599.717153989037</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>148.4718987395099</v>
+        <v>148.4718987395097</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>451.2452552495272</v>
+        <v>451.2452552495274</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>599.717153989037</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.906818934363268</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H11" t="n">
-        <v>19.52820941154782</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I11" t="n">
-        <v>73.51263696703997</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J11" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5545190220118</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L11" t="n">
-        <v>300.9103289845317</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M11" t="n">
-        <v>334.8207202085144</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N11" t="n">
-        <v>340.2384695057741</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O11" t="n">
-        <v>321.2775387271993</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P11" t="n">
-        <v>274.2029462851061</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q11" t="n">
-        <v>205.9149931982215</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R11" t="n">
-        <v>119.7792148856967</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S11" t="n">
-        <v>43.45163646680302</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T11" t="n">
-        <v>8.347099885175211</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1525455147490614</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.020238074173706</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H12" t="n">
-        <v>9.853351926888163</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I12" t="n">
-        <v>7.698620038550295</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J12" t="n">
-        <v>96.39012436743774</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K12" t="n">
-        <v>164.746075337076</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L12" t="n">
-        <v>221.5214292191637</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M12" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N12" t="n">
-        <v>265.346919124678</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O12" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P12" t="n">
-        <v>194.8207248832229</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.2324952225945</v>
+        <v>102.8044973564786</v>
       </c>
       <c r="R12" t="n">
-        <v>63.34425516667977</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S12" t="n">
-        <v>18.95047475493703</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T12" t="n">
-        <v>4.112275395463313</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06712092593248069</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8553333293690977</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H13" t="n">
-        <v>7.604690873845256</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I13" t="n">
-        <v>25.72220594139069</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J13" t="n">
-        <v>60.47206638639521</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K13" t="n">
-        <v>99.37418135760969</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L13" t="n">
-        <v>127.1647388045657</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M13" t="n">
-        <v>134.0773872573759</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N13" t="n">
-        <v>130.8893266660912</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8974782275521</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P13" t="n">
         <v>103.4486783084225</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.62250269835236</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R13" t="n">
-        <v>38.45889679145051</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S13" t="n">
-        <v>14.90612720364145</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T13" t="n">
-        <v>3.654606043667962</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04665454523831447</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.906818934363268</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H14" t="n">
-        <v>19.52820941154782</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I14" t="n">
-        <v>73.51263696703997</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J14" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5545190220118</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L14" t="n">
-        <v>300.9103289845317</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M14" t="n">
-        <v>334.8207202085144</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N14" t="n">
-        <v>340.2384695057741</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O14" t="n">
-        <v>321.2775387271993</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P14" t="n">
-        <v>274.2029462851061</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q14" t="n">
-        <v>205.9149931982215</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R14" t="n">
-        <v>119.7792148856967</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S14" t="n">
-        <v>43.45163646680302</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T14" t="n">
-        <v>8.347099885175211</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1525455147490614</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.020238074173706</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H15" t="n">
-        <v>9.853351926888163</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I15" t="n">
-        <v>7.698620038550295</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J15" t="n">
-        <v>96.39012436743774</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K15" t="n">
-        <v>164.746075337076</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L15" t="n">
-        <v>221.5214292191637</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M15" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N15" t="n">
-        <v>265.346919124678</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O15" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P15" t="n">
-        <v>194.8207248832229</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225946</v>
       </c>
       <c r="R15" t="n">
-        <v>63.34425516667977</v>
+        <v>35.91625730056398</v>
       </c>
       <c r="S15" t="n">
-        <v>18.95047475493703</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T15" t="n">
-        <v>4.112275395463313</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06712092593248069</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8553333293690977</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H16" t="n">
-        <v>7.604690873845256</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I16" t="n">
-        <v>25.72220594139069</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J16" t="n">
-        <v>60.47206638639521</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K16" t="n">
-        <v>99.37418135760969</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L16" t="n">
-        <v>127.1647388045657</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M16" t="n">
-        <v>134.0773872573759</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N16" t="n">
-        <v>130.8893266660912</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8974782275521</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P16" t="n">
         <v>103.4486783084225</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.62250269835236</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R16" t="n">
-        <v>38.45889679145051</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S16" t="n">
-        <v>14.90612720364145</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T16" t="n">
-        <v>3.654606043667962</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04665454523831447</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.906818934363269</v>
+        <v>1.90681893436327</v>
       </c>
       <c r="H17" t="n">
-        <v>19.52820941154783</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I17" t="n">
-        <v>73.51263696703998</v>
+        <v>73.51263696704002</v>
       </c>
       <c r="J17" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K17" t="n">
-        <v>242.5545190220118</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L17" t="n">
-        <v>300.9103289845318</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M17" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N17" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O17" t="n">
-        <v>321.2775387271994</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P17" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q17" t="n">
-        <v>205.9149931982216</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R17" t="n">
         <v>119.7792148856968</v>
       </c>
       <c r="S17" t="n">
-        <v>43.45163646680303</v>
+        <v>43.45163646680305</v>
       </c>
       <c r="T17" t="n">
-        <v>8.347099885175213</v>
+        <v>8.347099885175217</v>
       </c>
       <c r="U17" t="n">
         <v>0.1525455147490615</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.020238074173706</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H18" t="n">
-        <v>9.853351926888164</v>
+        <v>9.85335192688817</v>
       </c>
       <c r="I18" t="n">
-        <v>35.12661790466489</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J18" t="n">
-        <v>96.39012436743776</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K18" t="n">
         <v>164.7460753370761</v>
       </c>
       <c r="L18" t="n">
-        <v>221.5214292191637</v>
+        <v>194.0934313530477</v>
       </c>
       <c r="M18" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079607</v>
       </c>
       <c r="N18" t="n">
-        <v>265.3469191246781</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O18" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P18" t="n">
-        <v>194.8207248832229</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225946</v>
       </c>
       <c r="R18" t="n">
-        <v>35.91625730056467</v>
+        <v>63.34425516667982</v>
       </c>
       <c r="S18" t="n">
-        <v>18.95047475493703</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T18" t="n">
-        <v>4.112275395463315</v>
+        <v>4.112275395463317</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0671209259324807</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,28 +32384,28 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8553333293690979</v>
+        <v>0.8553333293690983</v>
       </c>
       <c r="H19" t="n">
-        <v>7.604690873845258</v>
+        <v>7.604690873845262</v>
       </c>
       <c r="I19" t="n">
-        <v>25.7222059413907</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J19" t="n">
-        <v>60.47206638639522</v>
+        <v>60.47206638639525</v>
       </c>
       <c r="K19" t="n">
-        <v>99.37418135760971</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L19" t="n">
-        <v>127.1647388045657</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M19" t="n">
-        <v>134.0773872573759</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N19" t="n">
-        <v>130.8893266660912</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O19" t="n">
         <v>120.8974782275522</v>
@@ -32414,19 +32414,19 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.62250269835238</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R19" t="n">
-        <v>38.45889679145052</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S19" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T19" t="n">
-        <v>3.654606043667963</v>
+        <v>3.654606043667965</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04665454523831448</v>
+        <v>0.04665454523831451</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.906818934363269</v>
+        <v>1.90681893436327</v>
       </c>
       <c r="H20" t="n">
-        <v>19.52820941154783</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I20" t="n">
-        <v>73.51263696703998</v>
+        <v>73.51263696704002</v>
       </c>
       <c r="J20" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5545190220118</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L20" t="n">
-        <v>300.9103289845318</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M20" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N20" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O20" t="n">
-        <v>321.2775387271994</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P20" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q20" t="n">
-        <v>205.9149931982216</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R20" t="n">
         <v>119.7792148856968</v>
       </c>
       <c r="S20" t="n">
-        <v>43.45163646680303</v>
+        <v>43.45163646680305</v>
       </c>
       <c r="T20" t="n">
-        <v>8.347099885175213</v>
+        <v>8.347099885175217</v>
       </c>
       <c r="U20" t="n">
         <v>0.1525455147490615</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.020238074173706</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H21" t="n">
-        <v>9.853351926888164</v>
+        <v>9.85335192688817</v>
       </c>
       <c r="I21" t="n">
-        <v>35.12661790466489</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J21" t="n">
-        <v>68.96212650132257</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K21" t="n">
         <v>164.7460753370761</v>
       </c>
       <c r="L21" t="n">
-        <v>221.5214292191637</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M21" t="n">
-        <v>258.5050594079605</v>
+        <v>231.0770615418445</v>
       </c>
       <c r="N21" t="n">
-        <v>265.3469191246781</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O21" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P21" t="n">
-        <v>194.8207248832229</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225946</v>
       </c>
       <c r="R21" t="n">
-        <v>63.34425516667979</v>
+        <v>63.34425516667982</v>
       </c>
       <c r="S21" t="n">
-        <v>18.95047475493703</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T21" t="n">
-        <v>4.112275395463315</v>
+        <v>4.112275395463317</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0671209259324807</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,28 +32621,28 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8553333293690979</v>
+        <v>0.8553333293690983</v>
       </c>
       <c r="H22" t="n">
-        <v>7.604690873845258</v>
+        <v>7.604690873845262</v>
       </c>
       <c r="I22" t="n">
-        <v>25.7222059413907</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J22" t="n">
-        <v>60.47206638639522</v>
+        <v>60.47206638639525</v>
       </c>
       <c r="K22" t="n">
-        <v>99.37418135760971</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L22" t="n">
-        <v>127.1647388045657</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M22" t="n">
-        <v>134.0773872573759</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N22" t="n">
-        <v>130.8893266660912</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O22" t="n">
         <v>120.8974782275522</v>
@@ -32651,19 +32651,19 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.62250269835238</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R22" t="n">
-        <v>38.45889679145052</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S22" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T22" t="n">
-        <v>3.654606043667963</v>
+        <v>3.654606043667965</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04665454523831448</v>
+        <v>0.04665454523831451</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.906818934363269</v>
+        <v>1.90681893436327</v>
       </c>
       <c r="H23" t="n">
-        <v>19.52820941154783</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I23" t="n">
-        <v>73.51263696703998</v>
+        <v>73.51263696704002</v>
       </c>
       <c r="J23" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5545190220118</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L23" t="n">
-        <v>300.9103289845318</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M23" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N23" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O23" t="n">
-        <v>321.2775387271994</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P23" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.9149931982216</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R23" t="n">
         <v>119.7792148856968</v>
       </c>
       <c r="S23" t="n">
-        <v>43.45163646680303</v>
+        <v>43.45163646680305</v>
       </c>
       <c r="T23" t="n">
-        <v>8.347099885175213</v>
+        <v>8.347099885175217</v>
       </c>
       <c r="U23" t="n">
         <v>0.1525455147490615</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.020238074173706</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H24" t="n">
-        <v>9.853351926888164</v>
+        <v>9.85335192688817</v>
       </c>
       <c r="I24" t="n">
-        <v>35.12661790466489</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J24" t="n">
-        <v>68.96212650132264</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K24" t="n">
         <v>164.7460753370761</v>
       </c>
       <c r="L24" t="n">
-        <v>221.5214292191637</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M24" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079607</v>
       </c>
       <c r="N24" t="n">
-        <v>265.3469191246781</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O24" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P24" t="n">
-        <v>194.8207248832229</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.2324952225945</v>
+        <v>102.8044973564784</v>
       </c>
       <c r="R24" t="n">
-        <v>63.34425516667979</v>
+        <v>63.34425516667982</v>
       </c>
       <c r="S24" t="n">
-        <v>18.95047475493703</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T24" t="n">
-        <v>4.112275395463315</v>
+        <v>4.112275395463317</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0671209259324807</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,28 +32858,28 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8553333293690979</v>
+        <v>0.8553333293690983</v>
       </c>
       <c r="H25" t="n">
-        <v>7.604690873845258</v>
+        <v>7.604690873845262</v>
       </c>
       <c r="I25" t="n">
-        <v>25.7222059413907</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J25" t="n">
-        <v>60.47206638639522</v>
+        <v>60.47206638639525</v>
       </c>
       <c r="K25" t="n">
-        <v>99.37418135760971</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L25" t="n">
-        <v>127.1647388045657</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M25" t="n">
-        <v>134.0773872573759</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N25" t="n">
-        <v>130.8893266660912</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O25" t="n">
         <v>120.8974782275522</v>
@@ -32888,19 +32888,19 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.62250269835238</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R25" t="n">
-        <v>38.45889679145052</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S25" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T25" t="n">
-        <v>3.654606043667963</v>
+        <v>3.654606043667965</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04665454523831448</v>
+        <v>0.04665454523831451</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.906818934363269</v>
+        <v>1.90681893436327</v>
       </c>
       <c r="H26" t="n">
-        <v>19.52820941154783</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I26" t="n">
-        <v>73.51263696703998</v>
+        <v>73.51263696704002</v>
       </c>
       <c r="J26" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K26" t="n">
-        <v>242.5545190220118</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L26" t="n">
-        <v>300.9103289845318</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M26" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N26" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O26" t="n">
-        <v>321.2775387271994</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P26" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.9149931982216</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R26" t="n">
         <v>119.7792148856968</v>
       </c>
       <c r="S26" t="n">
-        <v>43.45163646680303</v>
+        <v>43.45163646680305</v>
       </c>
       <c r="T26" t="n">
-        <v>8.347099885175213</v>
+        <v>8.347099885175217</v>
       </c>
       <c r="U26" t="n">
         <v>0.1525455147490615</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.020238074173706</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H27" t="n">
-        <v>9.853351926888164</v>
+        <v>9.85335192688817</v>
       </c>
       <c r="I27" t="n">
-        <v>35.12661790466489</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J27" t="n">
-        <v>68.96212650132264</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K27" t="n">
         <v>164.7460753370761</v>
       </c>
       <c r="L27" t="n">
-        <v>221.5214292191637</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M27" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079607</v>
       </c>
       <c r="N27" t="n">
-        <v>265.3469191246781</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O27" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P27" t="n">
-        <v>194.8207248832229</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225946</v>
       </c>
       <c r="R27" t="n">
-        <v>63.34425516667979</v>
+        <v>35.91625730056376</v>
       </c>
       <c r="S27" t="n">
-        <v>18.95047475493703</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T27" t="n">
-        <v>4.112275395463315</v>
+        <v>4.112275395463317</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0671209259324807</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,28 +33095,28 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8553333293690979</v>
+        <v>0.8553333293690983</v>
       </c>
       <c r="H28" t="n">
-        <v>7.604690873845258</v>
+        <v>7.604690873845262</v>
       </c>
       <c r="I28" t="n">
-        <v>25.7222059413907</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J28" t="n">
-        <v>60.47206638639522</v>
+        <v>60.47206638639525</v>
       </c>
       <c r="K28" t="n">
-        <v>99.37418135760971</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L28" t="n">
-        <v>127.1647388045657</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M28" t="n">
-        <v>134.0773872573759</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N28" t="n">
-        <v>130.8893266660912</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O28" t="n">
         <v>120.8974782275522</v>
@@ -33125,19 +33125,19 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.62250269835238</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R28" t="n">
-        <v>38.45889679145052</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S28" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T28" t="n">
-        <v>3.654606043667963</v>
+        <v>3.654606043667965</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04665454523831448</v>
+        <v>0.04665454523831451</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,25 +33180,25 @@
         <v>19.52820941154783</v>
       </c>
       <c r="I29" t="n">
-        <v>73.51263696703998</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J29" t="n">
         <v>161.8388735304146</v>
       </c>
       <c r="K29" t="n">
-        <v>242.5545190220118</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L29" t="n">
-        <v>300.9103289845318</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M29" t="n">
         <v>334.8207202085146</v>
       </c>
       <c r="N29" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O29" t="n">
-        <v>321.2775387271994</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P29" t="n">
         <v>274.2029462851062</v>
@@ -33210,10 +33210,10 @@
         <v>119.7792148856968</v>
       </c>
       <c r="S29" t="n">
-        <v>43.45163646680303</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T29" t="n">
-        <v>8.347099885175213</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U29" t="n">
         <v>0.1525455147490615</v>
@@ -33256,46 +33256,46 @@
         <v>1.020238074173706</v>
       </c>
       <c r="H30" t="n">
-        <v>9.853351926888164</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I30" t="n">
-        <v>35.12661790466489</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J30" t="n">
-        <v>96.39012436743776</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K30" t="n">
         <v>164.7460753370761</v>
       </c>
       <c r="L30" t="n">
-        <v>221.5214292191637</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M30" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N30" t="n">
-        <v>265.3469191246781</v>
+        <v>237.9189212585627</v>
       </c>
       <c r="O30" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P30" t="n">
-        <v>194.8207248832229</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q30" t="n">
         <v>130.2324952225945</v>
       </c>
       <c r="R30" t="n">
-        <v>35.91625730056512</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S30" t="n">
-        <v>18.95047475493703</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T30" t="n">
-        <v>4.112275395463315</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0671209259324807</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,28 +33332,28 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8553333293690979</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H31" t="n">
-        <v>7.604690873845258</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I31" t="n">
         <v>25.7222059413907</v>
       </c>
       <c r="J31" t="n">
-        <v>60.47206638639522</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K31" t="n">
-        <v>99.37418135760971</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L31" t="n">
-        <v>127.1647388045657</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M31" t="n">
-        <v>134.0773872573759</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N31" t="n">
-        <v>130.8893266660912</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O31" t="n">
         <v>120.8974782275522</v>
@@ -33362,19 +33362,19 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.62250269835238</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R31" t="n">
-        <v>38.45889679145052</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S31" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T31" t="n">
-        <v>3.654606043667963</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04665454523831448</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,25 +33417,25 @@
         <v>19.52820941154783</v>
       </c>
       <c r="I32" t="n">
-        <v>73.51263696703998</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J32" t="n">
         <v>161.8388735304146</v>
       </c>
       <c r="K32" t="n">
-        <v>242.5545190220118</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L32" t="n">
-        <v>300.9103289845318</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M32" t="n">
         <v>334.8207202085146</v>
       </c>
       <c r="N32" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O32" t="n">
-        <v>321.2775387271994</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P32" t="n">
         <v>274.2029462851062</v>
@@ -33447,10 +33447,10 @@
         <v>119.7792148856968</v>
       </c>
       <c r="S32" t="n">
-        <v>43.45163646680303</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T32" t="n">
-        <v>8.347099885175213</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U32" t="n">
         <v>0.1525455147490615</v>
@@ -33493,46 +33493,46 @@
         <v>1.020238074173706</v>
       </c>
       <c r="H33" t="n">
-        <v>9.853351926888164</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I33" t="n">
-        <v>7.69862003854977</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J33" t="n">
-        <v>96.39012436743776</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K33" t="n">
         <v>164.7460753370761</v>
       </c>
       <c r="L33" t="n">
-        <v>221.5214292191637</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M33" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N33" t="n">
-        <v>265.3469191246781</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O33" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P33" t="n">
-        <v>194.8207248832229</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q33" t="n">
         <v>130.2324952225945</v>
       </c>
       <c r="R33" t="n">
-        <v>63.34425516667979</v>
+        <v>35.91625730056444</v>
       </c>
       <c r="S33" t="n">
-        <v>18.95047475493703</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T33" t="n">
-        <v>4.112275395463315</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0671209259324807</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,28 +33569,28 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8553333293690979</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H34" t="n">
-        <v>7.604690873845258</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I34" t="n">
         <v>25.7222059413907</v>
       </c>
       <c r="J34" t="n">
-        <v>60.47206638639522</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K34" t="n">
-        <v>99.37418135760971</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L34" t="n">
-        <v>127.1647388045657</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M34" t="n">
-        <v>134.0773872573759</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N34" t="n">
-        <v>130.8893266660912</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O34" t="n">
         <v>120.8974782275522</v>
@@ -33599,19 +33599,19 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.62250269835238</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R34" t="n">
-        <v>38.45889679145052</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S34" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T34" t="n">
-        <v>3.654606043667963</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04665454523831448</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,25 +33654,25 @@
         <v>19.52820941154783</v>
       </c>
       <c r="I35" t="n">
-        <v>73.51263696703998</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J35" t="n">
         <v>161.8388735304146</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5545190220118</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L35" t="n">
-        <v>300.9103289845318</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M35" t="n">
         <v>334.8207202085146</v>
       </c>
       <c r="N35" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O35" t="n">
-        <v>321.2775387271994</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P35" t="n">
         <v>274.2029462851062</v>
@@ -33684,10 +33684,10 @@
         <v>119.7792148856968</v>
       </c>
       <c r="S35" t="n">
-        <v>43.45163646680303</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T35" t="n">
-        <v>8.347099885175213</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U35" t="n">
         <v>0.1525455147490615</v>
@@ -33730,46 +33730,46 @@
         <v>1.020238074173706</v>
       </c>
       <c r="H36" t="n">
-        <v>9.853351926888164</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I36" t="n">
-        <v>7.698620038549691</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J36" t="n">
-        <v>96.39012436743776</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K36" t="n">
         <v>164.7460753370761</v>
       </c>
       <c r="L36" t="n">
-        <v>221.5214292191637</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M36" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N36" t="n">
-        <v>265.3469191246781</v>
+        <v>237.9189212585627</v>
       </c>
       <c r="O36" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P36" t="n">
-        <v>194.8207248832229</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q36" t="n">
         <v>130.2324952225945</v>
       </c>
       <c r="R36" t="n">
-        <v>63.34425516667979</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S36" t="n">
-        <v>18.95047475493703</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T36" t="n">
-        <v>4.112275395463315</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0671209259324807</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,28 +33806,28 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8553333293690979</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H37" t="n">
-        <v>7.604690873845258</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I37" t="n">
         <v>25.7222059413907</v>
       </c>
       <c r="J37" t="n">
-        <v>60.47206638639522</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K37" t="n">
-        <v>99.37418135760971</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L37" t="n">
-        <v>127.1647388045657</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M37" t="n">
-        <v>134.0773872573759</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N37" t="n">
-        <v>130.8893266660912</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O37" t="n">
         <v>120.8974782275522</v>
@@ -33836,19 +33836,19 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.62250269835238</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R37" t="n">
-        <v>38.45889679145052</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S37" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T37" t="n">
-        <v>3.654606043667963</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04665454523831448</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,25 +33891,25 @@
         <v>19.52820941154783</v>
       </c>
       <c r="I38" t="n">
-        <v>73.51263696703998</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J38" t="n">
         <v>161.8388735304146</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5545190220118</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L38" t="n">
-        <v>300.9103289845318</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M38" t="n">
         <v>334.8207202085146</v>
       </c>
       <c r="N38" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O38" t="n">
-        <v>321.2775387271994</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P38" t="n">
         <v>274.2029462851062</v>
@@ -33921,10 +33921,10 @@
         <v>119.7792148856968</v>
       </c>
       <c r="S38" t="n">
-        <v>43.45163646680303</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T38" t="n">
-        <v>8.347099885175213</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U38" t="n">
         <v>0.1525455147490615</v>
@@ -33967,46 +33967,46 @@
         <v>1.020238074173706</v>
       </c>
       <c r="H39" t="n">
-        <v>9.853351926888164</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I39" t="n">
-        <v>7.698620038549691</v>
+        <v>7.698620038549571</v>
       </c>
       <c r="J39" t="n">
-        <v>96.39012436743776</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K39" t="n">
         <v>164.7460753370761</v>
       </c>
       <c r="L39" t="n">
-        <v>221.5214292191637</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M39" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N39" t="n">
-        <v>265.3469191246781</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O39" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P39" t="n">
-        <v>194.8207248832229</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q39" t="n">
         <v>130.2324952225945</v>
       </c>
       <c r="R39" t="n">
-        <v>63.34425516667979</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S39" t="n">
-        <v>18.95047475493703</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T39" t="n">
-        <v>4.112275395463315</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0671209259324807</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,28 +34043,28 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8553333293690979</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H40" t="n">
-        <v>7.604690873845258</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I40" t="n">
         <v>25.7222059413907</v>
       </c>
       <c r="J40" t="n">
-        <v>60.47206638639522</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K40" t="n">
-        <v>99.37418135760971</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L40" t="n">
-        <v>127.1647388045657</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M40" t="n">
-        <v>134.0773872573759</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N40" t="n">
-        <v>130.8893266660912</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O40" t="n">
         <v>120.8974782275522</v>
@@ -34073,19 +34073,19 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.62250269835238</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R40" t="n">
-        <v>38.45889679145052</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S40" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T40" t="n">
-        <v>3.654606043667963</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04665454523831448</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,43 +34125,43 @@
         <v>1.906818934363269</v>
       </c>
       <c r="H41" t="n">
-        <v>19.52820941154783</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I41" t="n">
-        <v>73.51263696703998</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J41" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K41" t="n">
-        <v>242.5545190220118</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L41" t="n">
-        <v>300.9103289845318</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M41" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N41" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O41" t="n">
-        <v>321.2775387271994</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P41" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q41" t="n">
-        <v>205.9149931982216</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R41" t="n">
         <v>119.7792148856968</v>
       </c>
       <c r="S41" t="n">
-        <v>43.45163646680303</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T41" t="n">
-        <v>8.347099885175213</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U41" t="n">
         <v>0.1525455147490615</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.020238074173706</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H42" t="n">
-        <v>9.853351926888164</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I42" t="n">
-        <v>7.698620038550075</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J42" t="n">
-        <v>96.39012436743776</v>
+        <v>68.96212650132208</v>
       </c>
       <c r="K42" t="n">
         <v>164.7460753370761</v>
       </c>
       <c r="L42" t="n">
-        <v>221.5214292191637</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M42" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N42" t="n">
-        <v>265.3469191246781</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O42" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P42" t="n">
-        <v>194.8207248832229</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225946</v>
       </c>
       <c r="R42" t="n">
-        <v>63.34425516667979</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S42" t="n">
-        <v>18.95047475493703</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T42" t="n">
-        <v>4.112275395463315</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0671209259324807</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,28 +34280,28 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8553333293690979</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H43" t="n">
-        <v>7.604690873845258</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I43" t="n">
-        <v>25.7222059413907</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J43" t="n">
-        <v>60.47206638639522</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K43" t="n">
-        <v>99.37418135760971</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L43" t="n">
-        <v>127.1647388045657</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M43" t="n">
-        <v>134.0773872573759</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N43" t="n">
-        <v>130.8893266660912</v>
+        <v>130.8893266660913</v>
       </c>
       <c r="O43" t="n">
         <v>120.8974782275522</v>
@@ -34310,19 +34310,19 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.62250269835238</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R43" t="n">
-        <v>38.45889679145052</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S43" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T43" t="n">
-        <v>3.654606043667963</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04665454523831448</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,43 +34362,43 @@
         <v>1.906818934363269</v>
       </c>
       <c r="H44" t="n">
-        <v>19.52820941154783</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I44" t="n">
-        <v>73.51263696704</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J44" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5545190220118</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L44" t="n">
-        <v>300.9103289845318</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M44" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N44" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O44" t="n">
-        <v>321.2775387271994</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P44" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q44" t="n">
-        <v>205.9149931982216</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R44" t="n">
         <v>119.7792148856968</v>
       </c>
       <c r="S44" t="n">
-        <v>43.45163646680303</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T44" t="n">
-        <v>8.347099885175213</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U44" t="n">
         <v>0.1525455147490615</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.020238074173706</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H45" t="n">
-        <v>9.853351926888166</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I45" t="n">
-        <v>7.698620038549613</v>
+        <v>7.698620038549187</v>
       </c>
       <c r="J45" t="n">
-        <v>96.39012436743778</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K45" t="n">
         <v>164.7460753370761</v>
@@ -34462,25 +34462,25 @@
         <v>265.3469191246782</v>
       </c>
       <c r="O45" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P45" t="n">
         <v>194.820724883223</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225946</v>
       </c>
       <c r="R45" t="n">
-        <v>63.34425516667979</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S45" t="n">
-        <v>18.95047475493703</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T45" t="n">
-        <v>4.112275395463315</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06712092593248072</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.855333329369098</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H46" t="n">
-        <v>7.604690873845259</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I46" t="n">
-        <v>25.7222059413907</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J46" t="n">
-        <v>60.47206638639523</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K46" t="n">
-        <v>99.37418135760973</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L46" t="n">
-        <v>127.1647388045657</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M46" t="n">
         <v>134.077387257376</v>
@@ -34547,7 +34547,7 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q46" t="n">
-        <v>71.62250269835238</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R46" t="n">
         <v>38.45889679145053</v>
@@ -34556,10 +34556,10 @@
         <v>14.90612720364146</v>
       </c>
       <c r="T46" t="n">
-        <v>3.654606043667963</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04665454523831449</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>73.10001548790856</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J11" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304152</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5545190220117</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L11" t="n">
-        <v>300.9103289845318</v>
+        <v>300.910328984532</v>
       </c>
       <c r="M11" t="n">
-        <v>334.8207202085143</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N11" t="n">
-        <v>340.238469505774</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O11" t="n">
         <v>321.2775387271995</v>
       </c>
       <c r="P11" t="n">
-        <v>274.202946285106</v>
+        <v>274.2029462851065</v>
       </c>
       <c r="Q11" t="n">
         <v>205.9149931982215</v>
       </c>
       <c r="R11" t="n">
-        <v>119.779214885697</v>
+        <v>119.7792148856965</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.698620038550295</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J12" t="n">
-        <v>96.39012436743774</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K12" t="n">
-        <v>164.746075337076</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L12" t="n">
-        <v>221.5214292191637</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M12" t="n">
-        <v>258.5050594079604</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N12" t="n">
-        <v>265.346919124678</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O12" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P12" t="n">
         <v>194.820724883223</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.2324952225945</v>
+        <v>102.8044973564786</v>
       </c>
       <c r="R12" t="n">
-        <v>63.34425516667966</v>
+        <v>63.34425516667989</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.47206638639521</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K13" t="n">
-        <v>99.3741813576097</v>
+        <v>376.9079738537063</v>
       </c>
       <c r="L13" t="n">
-        <v>127.1647388045657</v>
+        <v>549.5989628126074</v>
       </c>
       <c r="M13" t="n">
         <v>598.2025056219345</v>
       </c>
       <c r="N13" t="n">
-        <v>401.2748175529769</v>
+        <v>218.8862789954064</v>
       </c>
       <c r="O13" t="n">
-        <v>544.8058107788465</v>
+        <v>120.8974782275523</v>
       </c>
       <c r="P13" t="n">
-        <v>454.4657429249294</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.62250269835249</v>
+        <v>241.5141944805064</v>
       </c>
       <c r="R13" t="n">
-        <v>17.25525370976868</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,28 +35643,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>73.10001548790856</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J14" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5545190220117</v>
+        <v>242.5545190220121</v>
       </c>
       <c r="L14" t="n">
-        <v>300.9103289845317</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M14" t="n">
-        <v>334.8207202085144</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N14" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O14" t="n">
-        <v>321.2775387271993</v>
+        <v>321.2775387271997</v>
       </c>
       <c r="P14" t="n">
-        <v>274.202946285106</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q14" t="n">
         <v>205.9149931982215</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.698620038550295</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J15" t="n">
-        <v>96.39012436743774</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K15" t="n">
-        <v>164.746075337076</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L15" t="n">
-        <v>221.5214292191637</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M15" t="n">
-        <v>258.5050594079604</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N15" t="n">
-        <v>265.346919124678</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O15" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P15" t="n">
         <v>194.820724883223</v>
@@ -35749,7 +35749,7 @@
         <v>130.2324952225945</v>
       </c>
       <c r="R15" t="n">
-        <v>63.34425516667966</v>
+        <v>35.91625730056398</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>376.9079738537063</v>
       </c>
       <c r="L16" t="n">
-        <v>127.1647388045657</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M16" t="n">
-        <v>598.2025056219345</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N16" t="n">
-        <v>130.8893266660912</v>
+        <v>330.5202242002052</v>
       </c>
       <c r="O16" t="n">
-        <v>280.3115899484012</v>
+        <v>544.8058107788468</v>
       </c>
       <c r="P16" t="n">
         <v>454.4657429249294</v>
@@ -35828,7 +35828,7 @@
         <v>241.5141944805064</v>
       </c>
       <c r="R16" t="n">
-        <v>17.25525370976868</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,22 +35880,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>73.10001548790858</v>
+        <v>73.10001548790862</v>
       </c>
       <c r="J17" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K17" t="n">
-        <v>242.5545190220118</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L17" t="n">
-        <v>300.9103289845318</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M17" t="n">
         <v>334.8207202085146</v>
       </c>
       <c r="N17" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O17" t="n">
         <v>321.2775387271995</v>
@@ -35907,7 +35907,7 @@
         <v>205.9149931982215</v>
       </c>
       <c r="R17" t="n">
-        <v>119.7792148856961</v>
+        <v>119.779214885697</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>35.12661790466489</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J18" t="n">
-        <v>96.39012436743776</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K18" t="n">
         <v>164.7460753370761</v>
       </c>
       <c r="L18" t="n">
-        <v>221.5214292191638</v>
+        <v>194.0934313530477</v>
       </c>
       <c r="M18" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N18" t="n">
-        <v>265.3469191246782</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O18" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P18" t="n">
         <v>194.820724883223</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225947</v>
       </c>
       <c r="R18" t="n">
-        <v>35.91625730056467</v>
+        <v>63.34425516667989</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>60.47206638639522</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K19" t="n">
-        <v>99.37418135760971</v>
+        <v>186.5964456263218</v>
       </c>
       <c r="L19" t="n">
-        <v>127.1647388045657</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M19" t="n">
         <v>598.2025056219346</v>
       </c>
       <c r="N19" t="n">
-        <v>577.6153904616918</v>
+        <v>577.615390461692</v>
       </c>
       <c r="O19" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P19" t="n">
-        <v>278.1251700162143</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q19" t="n">
         <v>71.62250269835249</v>
       </c>
       <c r="R19" t="n">
-        <v>17.25525370976868</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>73.10001548790858</v>
+        <v>73.10001548790862</v>
       </c>
       <c r="J20" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5545190220118</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L20" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M20" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N20" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O20" t="n">
-        <v>321.2775387271993</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P20" t="n">
-        <v>274.202946285106</v>
+        <v>274.2029462851065</v>
       </c>
       <c r="Q20" t="n">
         <v>205.9149931982215</v>
       </c>
       <c r="R20" t="n">
-        <v>119.779214885697</v>
+        <v>119.7792148856965</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>35.12661790466489</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J21" t="n">
-        <v>68.96212650132257</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K21" t="n">
         <v>164.7460753370761</v>
       </c>
       <c r="L21" t="n">
-        <v>221.5214292191637</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M21" t="n">
-        <v>258.5050594079605</v>
+        <v>231.0770615418445</v>
       </c>
       <c r="N21" t="n">
-        <v>265.3469191246782</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O21" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P21" t="n">
         <v>194.820724883223</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225947</v>
       </c>
       <c r="R21" t="n">
         <v>63.34425516667989</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>147.9262938254759</v>
+        <v>65.25686631203411</v>
       </c>
       <c r="K22" t="n">
-        <v>376.9079738537063</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L22" t="n">
-        <v>127.1647388045657</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M22" t="n">
         <v>598.2025056219346</v>
       </c>
       <c r="N22" t="n">
-        <v>130.8893266660912</v>
+        <v>577.615390461692</v>
       </c>
       <c r="O22" t="n">
-        <v>280.311589948401</v>
+        <v>544.8058107788465</v>
       </c>
       <c r="P22" t="n">
-        <v>454.4657429249294</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q22" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R22" t="n">
-        <v>17.25525370976868</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>73.10001548790858</v>
+        <v>73.10001548790862</v>
       </c>
       <c r="J23" t="n">
-        <v>161.8388735304146</v>
+        <v>601.4900729778066</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5545190220118</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L23" t="n">
-        <v>300.9103289845317</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M23" t="n">
-        <v>343.8961756784915</v>
+        <v>334.8207202085148</v>
       </c>
       <c r="N23" t="n">
-        <v>748.1890527285468</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O23" t="n">
         <v>321.2775387271995</v>
       </c>
       <c r="P23" t="n">
-        <v>274.202946285106</v>
+        <v>274.2029462851065</v>
       </c>
       <c r="Q23" t="n">
         <v>205.9149931982215</v>
       </c>
       <c r="R23" t="n">
-        <v>290.641906555451</v>
+        <v>268.0167458008077</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>35.12661790466489</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J24" t="n">
-        <v>68.96212650132264</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K24" t="n">
-        <v>164.7460753370761</v>
+        <v>164.7460753370762</v>
       </c>
       <c r="L24" t="n">
-        <v>221.5214292191637</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M24" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079607</v>
       </c>
       <c r="N24" t="n">
-        <v>265.3469191246782</v>
+        <v>265.3469191246784</v>
       </c>
       <c r="O24" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P24" t="n">
         <v>194.820724883223</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.2324952225945</v>
+        <v>102.8044973564784</v>
       </c>
       <c r="R24" t="n">
         <v>63.34425516667989</v>
@@ -36518,28 +36518,28 @@
         <v>147.9262938254759</v>
       </c>
       <c r="K25" t="n">
-        <v>376.9079738537063</v>
+        <v>376.9079738537064</v>
       </c>
       <c r="L25" t="n">
-        <v>127.1647388045657</v>
+        <v>549.5989628126072</v>
       </c>
       <c r="M25" t="n">
-        <v>598.2025056219347</v>
+        <v>134.0773872573759</v>
       </c>
       <c r="N25" t="n">
-        <v>454.2838361981494</v>
+        <v>495.9747305546666</v>
       </c>
       <c r="O25" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P25" t="n">
-        <v>454.4657429249291</v>
+        <v>454.4657429249296</v>
       </c>
       <c r="Q25" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R25" t="n">
-        <v>17.25525370976868</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>73.10001548790858</v>
+        <v>73.10001548790862</v>
       </c>
       <c r="J26" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K26" t="n">
-        <v>242.5545190220118</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L26" t="n">
-        <v>300.9103289845318</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M26" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N26" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O26" t="n">
-        <v>321.2775387271995</v>
+        <v>748.189052728547</v>
       </c>
       <c r="P26" t="n">
-        <v>748.1890527285473</v>
+        <v>274.2029462851065</v>
       </c>
       <c r="Q26" t="n">
-        <v>319.8176171172845</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R26" t="n">
-        <v>119.7792148856965</v>
+        <v>280.7564312468517</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.12661790466488</v>
+        <v>35.12661790466492</v>
       </c>
       <c r="J27" t="n">
-        <v>68.96212650132264</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K27" t="n">
-        <v>164.7460753370761</v>
+        <v>164.7460753370762</v>
       </c>
       <c r="L27" t="n">
-        <v>221.5214292191637</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M27" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079607</v>
       </c>
       <c r="N27" t="n">
-        <v>265.3469191246782</v>
+        <v>265.3469191246784</v>
       </c>
       <c r="O27" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P27" t="n">
         <v>194.820724883223</v>
@@ -36697,7 +36697,7 @@
         <v>130.2324952225945</v>
       </c>
       <c r="R27" t="n">
-        <v>63.34425516667989</v>
+        <v>35.91625730056376</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,28 +36755,28 @@
         <v>147.9262938254759</v>
       </c>
       <c r="K28" t="n">
-        <v>376.9079738537063</v>
+        <v>376.9079738537064</v>
       </c>
       <c r="L28" t="n">
-        <v>549.5989628126073</v>
+        <v>549.5989628126072</v>
       </c>
       <c r="M28" t="n">
-        <v>403.4537919668578</v>
+        <v>499.1627911459514</v>
       </c>
       <c r="N28" t="n">
-        <v>577.6153904616917</v>
+        <v>130.8893266660912</v>
       </c>
       <c r="O28" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P28" t="n">
-        <v>103.4486783084226</v>
+        <v>454.4657429249291</v>
       </c>
       <c r="Q28" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R28" t="n">
-        <v>17.25525370976868</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,10 +36828,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>73.10001548790858</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J29" t="n">
-        <v>161.8388735304146</v>
+        <v>578.8649122231644</v>
       </c>
       <c r="K29" t="n">
         <v>242.5545190220118</v>
@@ -36849,13 +36849,13 @@
         <v>321.2775387271995</v>
       </c>
       <c r="P29" t="n">
-        <v>748.1890527285473</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q29" t="n">
-        <v>319.8176171172845</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R29" t="n">
-        <v>119.7792148856965</v>
+        <v>290.6419065554514</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.12661790466495</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J30" t="n">
-        <v>96.39012436743769</v>
+        <v>96.39012436743778</v>
       </c>
       <c r="K30" t="n">
-        <v>164.746075337076</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L30" t="n">
         <v>221.5214292191638</v>
@@ -36922,19 +36922,19 @@
         <v>258.5050594079605</v>
       </c>
       <c r="N30" t="n">
-        <v>265.3469191246782</v>
+        <v>237.9189212585627</v>
       </c>
       <c r="O30" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P30" t="n">
-        <v>194.8207248832227</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q30" t="n">
         <v>130.2324952225945</v>
       </c>
       <c r="R30" t="n">
-        <v>35.91625730056512</v>
+        <v>63.34425516667989</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>147.9262938254759</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K31" t="n">
-        <v>376.9079738537063</v>
+        <v>99.37418135760973</v>
       </c>
       <c r="L31" t="n">
-        <v>549.5989628126073</v>
+        <v>549.5989628126074</v>
       </c>
       <c r="M31" t="n">
-        <v>134.0773872573759</v>
+        <v>598.2025056219347</v>
       </c>
       <c r="N31" t="n">
-        <v>495.9747305546671</v>
+        <v>577.6153904616917</v>
       </c>
       <c r="O31" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P31" t="n">
-        <v>454.4657429249291</v>
+        <v>273.6879845885237</v>
       </c>
       <c r="Q31" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R31" t="n">
-        <v>17.25525370976868</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>73.10001548790858</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J32" t="n">
         <v>601.4900729778064</v>
@@ -37074,7 +37074,7 @@
         <v>242.5545190220118</v>
       </c>
       <c r="L32" t="n">
-        <v>300.9103289845318</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M32" t="n">
         <v>334.8207202085146</v>
@@ -37083,7 +37083,7 @@
         <v>340.2384695057742</v>
       </c>
       <c r="O32" t="n">
-        <v>321.2775387271995</v>
+        <v>321.2775387271993</v>
       </c>
       <c r="P32" t="n">
         <v>274.202946285106</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.69862003854977</v>
+        <v>35.12661790466489</v>
       </c>
       <c r="J33" t="n">
-        <v>96.39012436743776</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K33" t="n">
         <v>164.7460753370761</v>
       </c>
       <c r="L33" t="n">
-        <v>221.5214292191637</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M33" t="n">
         <v>258.5050594079605</v>
@@ -37162,7 +37162,7 @@
         <v>265.3469191246782</v>
       </c>
       <c r="O33" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P33" t="n">
         <v>194.820724883223</v>
@@ -37171,7 +37171,7 @@
         <v>130.2324952225945</v>
       </c>
       <c r="R33" t="n">
-        <v>63.34425516667989</v>
+        <v>35.91625730056444</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,16 +37229,16 @@
         <v>147.9262938254759</v>
       </c>
       <c r="K34" t="n">
-        <v>376.9079738537063</v>
+        <v>376.9079738537064</v>
       </c>
       <c r="L34" t="n">
-        <v>549.5989628126073</v>
+        <v>549.5989628126072</v>
       </c>
       <c r="M34" t="n">
         <v>134.0773872573759</v>
       </c>
       <c r="N34" t="n">
-        <v>495.9747305546666</v>
+        <v>577.6153904616917</v>
       </c>
       <c r="O34" t="n">
         <v>544.8058107788465</v>
@@ -37247,10 +37247,10 @@
         <v>454.4657429249291</v>
       </c>
       <c r="Q34" t="n">
-        <v>241.5141944805064</v>
+        <v>159.8735345734813</v>
       </c>
       <c r="R34" t="n">
-        <v>17.25525370976868</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>73.10001548790858</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J35" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5545190220116</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L35" t="n">
         <v>300.9103289845318</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.698620038549691</v>
+        <v>35.12661790466489</v>
       </c>
       <c r="J36" t="n">
-        <v>96.39012436743776</v>
+        <v>96.39012436743778</v>
       </c>
       <c r="K36" t="n">
         <v>164.7460753370761</v>
       </c>
       <c r="L36" t="n">
-        <v>221.5214292191637</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M36" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N36" t="n">
-        <v>265.3469191246782</v>
+        <v>237.9189212585627</v>
       </c>
       <c r="O36" t="n">
         <v>242.7405912706186</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>60.47206638639523</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K37" t="n">
-        <v>376.9079738537063</v>
+        <v>99.37418135760973</v>
       </c>
       <c r="L37" t="n">
-        <v>549.5989628126071</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M37" t="n">
-        <v>168.6199800046827</v>
+        <v>588.42434604328</v>
       </c>
       <c r="N37" t="n">
-        <v>130.8893266660912</v>
+        <v>577.6153904616918</v>
       </c>
       <c r="O37" t="n">
-        <v>544.8058107788465</v>
+        <v>120.8974782275523</v>
       </c>
       <c r="P37" t="n">
         <v>454.4657429249294</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.62250269835249</v>
+        <v>241.5141944805064</v>
       </c>
       <c r="R37" t="n">
-        <v>17.25525370976868</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>73.10001548790858</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J38" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304145</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5545190220118</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L38" t="n">
-        <v>300.9103289845318</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M38" t="n">
         <v>334.8207202085146</v>
@@ -37560,13 +37560,13 @@
         <v>321.2775387271995</v>
       </c>
       <c r="P38" t="n">
-        <v>274.2029462851062</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q38" t="n">
         <v>205.9149931982215</v>
       </c>
       <c r="R38" t="n">
-        <v>119.7792148856965</v>
+        <v>119.779214885697</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.698620038549691</v>
+        <v>7.698620038549571</v>
       </c>
       <c r="J39" t="n">
-        <v>96.39012436743776</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K39" t="n">
         <v>164.7460753370761</v>
       </c>
       <c r="L39" t="n">
-        <v>221.5214292191637</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M39" t="n">
         <v>258.5050594079605</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>147.9262938254759</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K40" t="n">
-        <v>376.9079738537063</v>
+        <v>241.5588748188594</v>
       </c>
       <c r="L40" t="n">
-        <v>549.5989628126072</v>
+        <v>549.5989628126073</v>
       </c>
       <c r="M40" t="n">
         <v>134.0773872573759</v>
@@ -37715,7 +37715,7 @@
         <v>130.8893266660912</v>
       </c>
       <c r="O40" t="n">
-        <v>322.0024843049187</v>
+        <v>544.8058107788465</v>
       </c>
       <c r="P40" t="n">
         <v>454.4657429249294</v>
@@ -37724,7 +37724,7 @@
         <v>241.5141944805064</v>
       </c>
       <c r="R40" t="n">
-        <v>17.25525370976868</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>73.10001548790858</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J41" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304152</v>
       </c>
       <c r="K41" t="n">
         <v>242.5545190220118</v>
@@ -37788,16 +37788,16 @@
         <v>300.9103289845318</v>
       </c>
       <c r="M41" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085148</v>
       </c>
       <c r="N41" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O41" t="n">
-        <v>321.2775387271995</v>
+        <v>321.2775387271993</v>
       </c>
       <c r="P41" t="n">
-        <v>274.202946285106</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q41" t="n">
         <v>205.9149931982215</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.698620038550075</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J42" t="n">
-        <v>96.39012436743781</v>
+        <v>68.96212650132208</v>
       </c>
       <c r="K42" t="n">
-        <v>164.746075337076</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L42" t="n">
         <v>221.5214292191638</v>
       </c>
       <c r="M42" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N42" t="n">
         <v>265.3469191246782</v>
       </c>
       <c r="O42" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P42" t="n">
         <v>194.820724883223</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>147.9262938254759</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K43" t="n">
-        <v>376.9079738537063</v>
+        <v>241.5588748188595</v>
       </c>
       <c r="L43" t="n">
-        <v>549.5989628126072</v>
+        <v>549.5989628126073</v>
       </c>
       <c r="M43" t="n">
-        <v>335.1823933347423</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N43" t="n">
         <v>130.8893266660912</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8974782275523</v>
+        <v>544.8058107788468</v>
       </c>
       <c r="P43" t="n">
         <v>454.4657429249294</v>
@@ -37961,7 +37961,7 @@
         <v>241.5141944805064</v>
       </c>
       <c r="R43" t="n">
-        <v>17.25525370976868</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>73.10001548790859</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J44" t="n">
         <v>161.8388735304147</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5545190220118</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L44" t="n">
         <v>300.9103289845318</v>
       </c>
       <c r="M44" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085148</v>
       </c>
       <c r="N44" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O44" t="n">
         <v>321.2775387271995</v>
       </c>
       <c r="P44" t="n">
-        <v>274.202946285106</v>
+        <v>274.2029462851065</v>
       </c>
       <c r="Q44" t="n">
         <v>205.9149931982215</v>
       </c>
       <c r="R44" t="n">
-        <v>119.779214885697</v>
+        <v>119.7792148856965</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.698620038549613</v>
+        <v>7.698620038549187</v>
       </c>
       <c r="J45" t="n">
-        <v>96.39012436743778</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K45" t="n">
         <v>164.7460753370761</v>
@@ -38104,13 +38104,13 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M45" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N45" t="n">
         <v>265.3469191246782</v>
       </c>
       <c r="O45" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P45" t="n">
         <v>194.820724883223</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>147.9262938254759</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K46" t="n">
-        <v>376.9079738537063</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L46" t="n">
-        <v>549.5989628126074</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M46" t="n">
-        <v>335.1823933347425</v>
+        <v>598.2025056219345</v>
       </c>
       <c r="N46" t="n">
-        <v>130.8893266660912</v>
+        <v>577.615390461692</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8974782275523</v>
+        <v>544.8058107788468</v>
       </c>
       <c r="P46" t="n">
-        <v>454.4657429249294</v>
+        <v>278.1251700162152</v>
       </c>
       <c r="Q46" t="n">
-        <v>241.5141944805064</v>
+        <v>71.62250269835249</v>
       </c>
       <c r="R46" t="n">
-        <v>17.25525370976869</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
